--- a/OrangeMain.xlsx
+++ b/OrangeMain.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\302809\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\302880\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846EF7E2-0225-4680-AF25-149CA8583288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559D92F0-8DF3-436B-B853-7AB9AE331F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{2E6A2184-8419-4B30-A13E-A1B5190D2FD7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{2E6A2184-8419-4B30-A13E-A1B5190D2FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="735">
   <si>
     <t>Issue Type</t>
   </si>
@@ -2601,6 +2601,18 @@
   </si>
   <si>
     <t>TS-01</t>
+  </si>
+  <si>
+    <t>TS_43</t>
+  </si>
+  <si>
+    <t>REQ_31</t>
+  </si>
+  <si>
+    <t>To verify that the user can add leave entitlement for single and multiple employees</t>
+  </si>
+  <si>
+    <t>Validate adding entitlement for a single employee, adding bulk entitlements using criteria (Location/Job Title/Submit), verifying entitlement list, and editing entitlements.</t>
   </si>
 </sst>
 </file>
@@ -3029,7 +3041,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3241,6 +3253,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3271,147 +3297,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3992,8 +3972,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{43725DD8-8DEE-4E5D-8961-5EA54C649321}" name="Table4" displayName="Table4" ref="A1:F43" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:F43" xr:uid="{43725DD8-8DEE-4E5D-8961-5EA54C649321}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{43725DD8-8DEE-4E5D-8961-5EA54C649321}" name="Table4" displayName="Table4" ref="A1:F44" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:F44" xr:uid="{43725DD8-8DEE-4E5D-8961-5EA54C649321}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{670619DA-4F99-4676-8249-8B608F177BF5}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{237F6E1C-CD58-426D-B013-FA9D6498B25D}" name="Requirement ID"/>
@@ -4336,11 +4316,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4408,11 +4388,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
@@ -4479,11 +4459,11 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
@@ -4534,11 +4514,11 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4598,11 +4578,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A42" s="87" t="s">
+      <c r="A42" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
@@ -4685,8 +4665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B89BEC-B47F-4DF1-B3F8-9E58E30A2F6D}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4952,24 +4932,24 @@
       </c>
       <c r="G12" s="45"/>
     </row>
-    <row r="13" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>179</v>
       </c>
       <c r="B13" t="s">
         <v>271</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="D13" s="36" t="s">
+      <c r="C13" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="36">
-        <v>3</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>200</v>
+      <c r="E13" s="134">
+        <v>4</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>734</v>
       </c>
       <c r="G13" s="45"/>
     </row>
@@ -4981,16 +4961,16 @@
         <v>272</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G14" s="45"/>
     </row>
@@ -5002,20 +4982,20 @@
         <v>273</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>59</v>
       </c>
       <c r="E15" s="36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G15" s="45"/>
     </row>
-    <row r="16" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>182</v>
       </c>
@@ -5023,177 +5003,177 @@
         <v>274</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>59</v>
       </c>
       <c r="E16" s="36">
+        <v>3</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="G16" s="45"/>
+    </row>
+    <row r="17" spans="1:9" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="36">
         <v>2</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F17" s="36" t="s">
         <v>206</v>
-      </c>
-      <c r="G16" s="45"/>
-    </row>
-    <row r="17" spans="1:9" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A17" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="38">
-        <v>6</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>208</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17"/>
       <c r="I17"/>
     </row>
-    <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="143" t="s">
+    <row r="18" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>184</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="38">
+        <v>6</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" s="45"/>
+    </row>
+    <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D19" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="E18" s="63">
+      <c r="E19" s="63">
         <v>5</v>
       </c>
-      <c r="F18" s="74" t="s">
+      <c r="F19" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="G18" s="45"/>
-    </row>
-    <row r="19" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19" s="128" t="s">
-        <v>277</v>
-      </c>
-      <c r="C19" s="137" t="s">
+      <c r="G19" s="45"/>
+    </row>
+    <row r="20" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="D19" s="137" t="s">
+      <c r="D20" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="137">
+      <c r="E20" s="36">
         <v>2</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F20" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="G19" s="45"/>
-    </row>
-    <row r="20" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="B20" s="128" t="s">
-        <v>278</v>
-      </c>
-      <c r="C20" s="137" t="s">
+      <c r="G20" s="45"/>
+    </row>
+    <row r="21" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>247</v>
+      </c>
+      <c r="B21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="137" t="s">
+      <c r="D21" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="137">
+      <c r="E21" s="36">
         <v>2</v>
       </c>
-      <c r="F20" s="60" t="s">
+      <c r="F21" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="G20" s="45"/>
-    </row>
-    <row r="21" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A21" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="B21" s="128" t="s">
-        <v>279</v>
-      </c>
-      <c r="C21" s="137" t="s">
+      <c r="G21" s="45"/>
+    </row>
+    <row r="22" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>248</v>
+      </c>
+      <c r="B22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C22" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="D21" s="137" t="s">
+      <c r="D22" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="137">
+      <c r="E22" s="36">
         <v>1</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F22" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="G21" s="45"/>
-    </row>
-    <row r="22" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="38">
-        <v>2</v>
-      </c>
-      <c r="F22" s="144" t="s">
-        <v>196</v>
-      </c>
       <c r="G22" s="45"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="46" t="s">
+    <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>249</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="38">
+        <v>2</v>
+      </c>
+      <c r="F23" s="91" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="45"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>250</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="C24" s="36" t="s">
         <v>159</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="E23" s="36">
-        <v>1</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="G23" s="45"/>
-    </row>
-    <row r="24" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="B24" t="s">
-        <v>281</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>161</v>
       </c>
       <c r="D24" s="36" t="s">
         <v>162</v>
@@ -5201,20 +5181,20 @@
       <c r="E24" s="36">
         <v>1</v>
       </c>
-      <c r="F24" s="20" t="s">
-        <v>163</v>
+      <c r="F24" s="36" t="s">
+        <v>160</v>
       </c>
       <c r="G24" s="45"/>
     </row>
     <row r="25" spans="1:9" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="46" t="s">
+      <c r="A25" t="s">
         <v>251</v>
       </c>
       <c r="B25" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D25" s="36" t="s">
         <v>162</v>
@@ -5223,21 +5203,21 @@
         <v>1</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G25" s="45"/>
       <c r="H25"/>
       <c r="I25"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="46" t="s">
+    <row r="26" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>252</v>
       </c>
       <c r="B26" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D26" s="36" t="s">
         <v>162</v>
@@ -5246,19 +5226,19 @@
         <v>1</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G26" s="45"/>
     </row>
-    <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="46" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>253</v>
       </c>
       <c r="B27" t="s">
         <v>282</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D27" s="36" t="s">
         <v>162</v>
@@ -5267,19 +5247,19 @@
         <v>1</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G27" s="45"/>
     </row>
     <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="46" t="s">
+      <c r="A28" t="s">
         <v>254</v>
       </c>
       <c r="B28" t="s">
         <v>283</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D28" s="36" t="s">
         <v>162</v>
@@ -5288,124 +5268,124 @@
         <v>1</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G28" s="45"/>
     </row>
     <row r="29" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="46" t="s">
+      <c r="A29" t="s">
         <v>255</v>
       </c>
       <c r="B29" t="s">
         <v>284</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D29" s="36" t="s">
         <v>162</v>
       </c>
       <c r="E29" s="36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G29" s="45"/>
     </row>
     <row r="30" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="46" t="s">
+      <c r="A30" t="s">
         <v>256</v>
       </c>
       <c r="B30" t="s">
         <v>286</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D30" s="36" t="s">
         <v>162</v>
       </c>
       <c r="E30" s="36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G30" s="45"/>
     </row>
     <row r="31" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="46" t="s">
+      <c r="A31" t="s">
         <v>257</v>
       </c>
       <c r="B31" t="s">
         <v>287</v>
       </c>
-      <c r="C31" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" s="38" t="s">
+      <c r="C31" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="36">
         <v>1</v>
       </c>
-      <c r="F31" s="27" t="s">
-        <v>177</v>
+      <c r="F31" s="20" t="s">
+        <v>175</v>
       </c>
       <c r="G31" s="45"/>
     </row>
-    <row r="32" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="46" t="s">
+    <row r="32" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>258</v>
       </c>
       <c r="B32" t="s">
         <v>285</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="38">
+        <v>1</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="45"/>
+    </row>
+    <row r="33" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>259</v>
+      </c>
+      <c r="B33" t="s">
+        <v>288</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>223</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="36">
-        <v>1</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="G32" s="45"/>
-    </row>
-    <row r="33" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="B33" t="s">
-        <v>285</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>224</v>
       </c>
       <c r="D33" s="36" t="s">
         <v>162</v>
       </c>
       <c r="E33" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G33" s="45"/>
     </row>
     <row r="34" spans="1:9" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="46" t="s">
+      <c r="A34" t="s">
         <v>260</v>
       </c>
       <c r="B34" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D34" s="36" t="s">
         <v>162</v>
@@ -5414,21 +5394,21 @@
         <v>2</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G34" s="45"/>
       <c r="H34"/>
       <c r="I34"/>
     </row>
     <row r="35" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="46" t="s">
+      <c r="A35" t="s">
         <v>261</v>
       </c>
       <c r="B35" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D35" s="36" t="s">
         <v>162</v>
@@ -5437,40 +5417,40 @@
         <v>2</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G35" s="45"/>
     </row>
     <row r="36" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="46" t="s">
+      <c r="A36" t="s">
         <v>262</v>
       </c>
       <c r="B36" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D36" s="36" t="s">
         <v>162</v>
       </c>
       <c r="E36" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G36" s="45"/>
     </row>
     <row r="37" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="46" t="s">
+      <c r="A37" t="s">
         <v>263</v>
       </c>
       <c r="B37" t="s">
         <v>288</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D37" s="36" t="s">
         <v>162</v>
@@ -5479,19 +5459,19 @@
         <v>1</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G37" s="45"/>
     </row>
     <row r="38" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="46" t="s">
+      <c r="A38" t="s">
         <v>264</v>
       </c>
       <c r="B38" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D38" s="36" t="s">
         <v>162</v>
@@ -5500,40 +5480,40 @@
         <v>1</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G38" s="45"/>
     </row>
     <row r="39" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="46" t="s">
+      <c r="A39" t="s">
         <v>265</v>
       </c>
       <c r="B39" t="s">
         <v>289</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D39" s="36" t="s">
         <v>162</v>
       </c>
       <c r="E39" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G39" s="45"/>
     </row>
     <row r="40" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="46" t="s">
+      <c r="A40" t="s">
         <v>266</v>
       </c>
       <c r="B40" t="s">
         <v>290</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D40" s="36" t="s">
         <v>162</v>
@@ -5542,61 +5522,61 @@
         <v>2</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G40" s="45"/>
     </row>
     <row r="41" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="46" t="s">
+      <c r="A41" t="s">
         <v>267</v>
       </c>
       <c r="B41" t="s">
         <v>291</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D41" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="36">
         <v>2</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G41" s="45"/>
     </row>
     <row r="42" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="46" t="s">
+      <c r="A42" t="s">
         <v>268</v>
       </c>
       <c r="B42" t="s">
         <v>292</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D42" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42">
         <v>2</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G42" s="45"/>
     </row>
     <row r="43" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="46" t="s">
+      <c r="A43" t="s">
         <v>269</v>
       </c>
       <c r="B43" t="s">
         <v>293</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D43" s="36" t="s">
         <v>162</v>
@@ -5605,11 +5585,29 @@
         <v>2</v>
       </c>
       <c r="F43" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="G43" s="45"/>
+    </row>
+    <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>731</v>
+      </c>
+      <c r="B44" t="s">
+        <v>732</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="E44" s="36">
+        <v>2</v>
+      </c>
+      <c r="F44" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="G43" s="45"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G44" s="45"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -5631,7 +5629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A9CE4C-2A62-44A6-B5F2-44C102142D8D}">
   <dimension ref="A1:L168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A115" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C85" sqref="C85:C93"/>
     </sheetView>
   </sheetViews>
@@ -5651,31 +5649,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="62" x14ac:dyDescent="0.35">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="111" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="111" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="114" t="s">
+      <c r="E1" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="F1" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="114" t="s">
+      <c r="G1" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="114" t="s">
+      <c r="H1" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="114" t="s">
+      <c r="I1" s="115" t="s">
         <v>99</v>
       </c>
       <c r="J1" s="49" t="s">
@@ -5686,15 +5684,15 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="122"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
       <c r="J2" s="50" t="s">
         <v>101</v>
       </c>
@@ -5703,16 +5701,16 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="109" t="s">
+      <c r="D3" s="106" t="s">
         <v>446</v>
       </c>
       <c r="E3">
@@ -5730,15 +5728,15 @@
       <c r="I3" t="s">
         <v>369</v>
       </c>
-      <c r="J3" s="91" t="s">
+      <c r="J3" s="97" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="112"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="104"/>
       <c r="E4">
         <v>2</v>
       </c>
@@ -5754,13 +5752,13 @@
       <c r="I4" t="s">
         <v>370</v>
       </c>
-      <c r="J4" s="92"/>
+      <c r="J4" s="98"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="92"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="112"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="104"/>
       <c r="E5">
         <v>3</v>
       </c>
@@ -5776,13 +5774,13 @@
       <c r="I5" t="s">
         <v>371</v>
       </c>
-      <c r="J5" s="92"/>
+      <c r="J5" s="98"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="112"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="104"/>
       <c r="E6">
         <v>4</v>
       </c>
@@ -5798,13 +5796,13 @@
       <c r="I6" t="s">
         <v>372</v>
       </c>
-      <c r="J6" s="92"/>
+      <c r="J6" s="98"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="92"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="112"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="104"/>
       <c r="E7">
         <v>5</v>
       </c>
@@ -5820,13 +5818,13 @@
       <c r="I7" t="s">
         <v>373</v>
       </c>
-      <c r="J7" s="92"/>
+      <c r="J7" s="98"/>
     </row>
     <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="113"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="25">
         <v>6</v>
       </c>
@@ -5840,20 +5838,20 @@
       <c r="I8" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="J8" s="93"/>
+      <c r="J8" s="99"/>
       <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="106" t="s">
         <v>447</v>
       </c>
       <c r="E9">
@@ -5871,15 +5869,15 @@
       <c r="I9" t="s">
         <v>380</v>
       </c>
-      <c r="J9" s="91" t="s">
+      <c r="J9" s="97" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="92"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="116"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="107"/>
       <c r="E10">
         <v>2</v>
       </c>
@@ -5895,13 +5893,13 @@
       <c r="I10" t="s">
         <v>370</v>
       </c>
-      <c r="J10" s="92"/>
+      <c r="J10" s="98"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="92"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="116"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="107"/>
       <c r="E11">
         <v>3</v>
       </c>
@@ -5917,13 +5915,13 @@
       <c r="I11" t="s">
         <v>381</v>
       </c>
-      <c r="J11" s="92"/>
+      <c r="J11" s="98"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="92"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="116"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="107"/>
       <c r="E12">
         <v>4</v>
       </c>
@@ -5939,13 +5937,13 @@
       <c r="I12" t="s">
         <v>379</v>
       </c>
-      <c r="J12" s="92"/>
+      <c r="J12" s="98"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="92"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="116"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="107"/>
       <c r="E13">
         <v>5</v>
       </c>
@@ -5961,13 +5959,13 @@
       <c r="I13" t="s">
         <v>373</v>
       </c>
-      <c r="J13" s="92"/>
+      <c r="J13" s="98"/>
     </row>
     <row r="14" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="93"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="110"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="108"/>
       <c r="E14" s="25">
         <v>6</v>
       </c>
@@ -5981,20 +5979,20 @@
       <c r="I14" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="J14" s="93"/>
+      <c r="J14" s="99"/>
       <c r="K14" s="25"/>
     </row>
     <row r="15" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="109" t="s">
+      <c r="D15" s="106" t="s">
         <v>448</v>
       </c>
       <c r="E15">
@@ -6012,15 +6010,15 @@
       <c r="I15" t="s">
         <v>369</v>
       </c>
-      <c r="J15" s="91" t="s">
+      <c r="J15" s="97" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="92"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="116"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="107"/>
       <c r="E16">
         <v>2</v>
       </c>
@@ -6036,13 +6034,13 @@
       <c r="I16" t="s">
         <v>370</v>
       </c>
-      <c r="J16" s="92"/>
+      <c r="J16" s="98"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="92"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="116"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="107"/>
       <c r="E17">
         <v>3</v>
       </c>
@@ -6058,13 +6056,13 @@
       <c r="I17" t="s">
         <v>371</v>
       </c>
-      <c r="J17" s="92"/>
+      <c r="J17" s="98"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="92"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="116"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="107"/>
       <c r="E18">
         <v>4</v>
       </c>
@@ -6080,13 +6078,13 @@
       <c r="I18" t="s">
         <v>383</v>
       </c>
-      <c r="J18" s="92"/>
+      <c r="J18" s="98"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="92"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="116"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="107"/>
       <c r="E19">
         <v>5</v>
       </c>
@@ -6102,13 +6100,13 @@
       <c r="I19" t="s">
         <v>373</v>
       </c>
-      <c r="J19" s="92"/>
+      <c r="J19" s="98"/>
     </row>
     <row r="20" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="93"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="110"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="108"/>
       <c r="E20" s="25">
         <v>6</v>
       </c>
@@ -6122,20 +6120,20 @@
       <c r="I20" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="J20" s="93"/>
+      <c r="J20" s="99"/>
       <c r="K20" s="25"/>
     </row>
     <row r="21" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="109" t="s">
+      <c r="D21" s="106" t="s">
         <v>124</v>
       </c>
       <c r="E21">
@@ -6153,15 +6151,15 @@
       <c r="I21" t="s">
         <v>369</v>
       </c>
-      <c r="J21" s="91" t="s">
+      <c r="J21" s="97" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="92"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="116"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="107"/>
       <c r="E22">
         <v>2</v>
       </c>
@@ -6177,13 +6175,13 @@
       <c r="I22" t="s">
         <v>370</v>
       </c>
-      <c r="J22" s="92"/>
+      <c r="J22" s="98"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="92"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="116"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="107"/>
       <c r="E23">
         <v>3</v>
       </c>
@@ -6199,13 +6197,13 @@
       <c r="I23" t="s">
         <v>371</v>
       </c>
-      <c r="J23" s="92"/>
+      <c r="J23" s="98"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="92"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="116"/>
+      <c r="A24" s="98"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="107"/>
       <c r="E24">
         <v>4</v>
       </c>
@@ -6221,13 +6219,13 @@
       <c r="I24" t="s">
         <v>372</v>
       </c>
-      <c r="J24" s="92"/>
+      <c r="J24" s="98"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="92"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="116"/>
+      <c r="A25" s="98"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="107"/>
       <c r="E25">
         <v>5</v>
       </c>
@@ -6243,19 +6241,19 @@
       <c r="I25" t="s">
         <v>396</v>
       </c>
-      <c r="J25" s="93"/>
+      <c r="J25" s="99"/>
     </row>
     <row r="26" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="91" t="s">
+      <c r="C26" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="109" t="s">
+      <c r="D26" s="106" t="s">
         <v>128</v>
       </c>
       <c r="E26" s="26">
@@ -6273,16 +6271,16 @@
       <c r="I26" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="J26" s="91" t="s">
+      <c r="J26" s="97" t="s">
         <v>375</v>
       </c>
       <c r="K26" s="26"/>
     </row>
     <row r="27" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="93"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="110"/>
+      <c r="A27" s="99"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="108"/>
       <c r="E27" s="25">
         <v>2</v>
       </c>
@@ -6296,20 +6294,20 @@
       <c r="I27" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="J27" s="93"/>
+      <c r="J27" s="99"/>
       <c r="K27" s="25"/>
     </row>
     <row r="28" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="91" t="s">
+      <c r="A28" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="111" t="s">
+      <c r="D28" s="103" t="s">
         <v>143</v>
       </c>
       <c r="E28" s="26">
@@ -6327,16 +6325,16 @@
       <c r="I28" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="J28" s="91" t="s">
+      <c r="J28" s="97" t="s">
         <v>375</v>
       </c>
       <c r="K28" s="26"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="92"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="112"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="104"/>
       <c r="E29">
         <v>2</v>
       </c>
@@ -6352,13 +6350,13 @@
       <c r="I29" t="s">
         <v>399</v>
       </c>
-      <c r="J29" s="92"/>
+      <c r="J29" s="98"/>
     </row>
     <row r="30" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="92"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="112"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="104"/>
       <c r="E30">
         <v>3</v>
       </c>
@@ -6374,13 +6372,13 @@
       <c r="I30" t="s">
         <v>400</v>
       </c>
-      <c r="J30" s="92"/>
+      <c r="J30" s="98"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="93"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="113"/>
+      <c r="A31" s="99"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="105"/>
       <c r="E31" s="25">
         <v>4</v>
       </c>
@@ -6394,20 +6392,20 @@
       <c r="I31" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="J31" s="93"/>
+      <c r="J31" s="99"/>
       <c r="K31" s="25"/>
     </row>
     <row r="32" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="97" t="s">
         <v>294</v>
       </c>
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="88" t="s">
+      <c r="C32" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="109" t="s">
+      <c r="D32" s="106" t="s">
         <v>209</v>
       </c>
       <c r="E32" s="26">
@@ -6425,16 +6423,16 @@
       <c r="I32" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="J32" s="91" t="s">
+      <c r="J32" s="97" t="s">
         <v>382</v>
       </c>
       <c r="K32" s="26"/>
     </row>
     <row r="33" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="93"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="110"/>
+      <c r="A33" s="99"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="108"/>
       <c r="E33" s="25">
         <v>2</v>
       </c>
@@ -6448,20 +6446,20 @@
       <c r="I33" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="J33" s="93"/>
+      <c r="J33" s="99"/>
       <c r="K33" s="25"/>
     </row>
     <row r="34" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="91" t="s">
+      <c r="A34" s="97" t="s">
         <v>295</v>
       </c>
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="88" t="s">
+      <c r="C34" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="109" t="s">
+      <c r="D34" s="106" t="s">
         <v>213</v>
       </c>
       <c r="E34" s="26">
@@ -6479,16 +6477,16 @@
       <c r="I34" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="J34" s="91" t="s">
+      <c r="J34" s="97" t="s">
         <v>382</v>
       </c>
       <c r="K34" s="26"/>
     </row>
     <row r="35" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="93"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="110"/>
+      <c r="A35" s="99"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="108"/>
       <c r="E35" s="25">
         <v>2</v>
       </c>
@@ -6502,20 +6500,20 @@
       <c r="I35" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="J35" s="93"/>
+      <c r="J35" s="99"/>
       <c r="K35" s="25"/>
     </row>
     <row r="36" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="91" t="s">
+      <c r="A36" s="97" t="s">
         <v>296</v>
       </c>
-      <c r="B36" s="91" t="s">
+      <c r="B36" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="88" t="s">
+      <c r="C36" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="109" t="s">
+      <c r="D36" s="106" t="s">
         <v>216</v>
       </c>
       <c r="E36" s="26">
@@ -6533,16 +6531,16 @@
       <c r="I36" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="J36" s="91" t="s">
+      <c r="J36" s="97" t="s">
         <v>382</v>
       </c>
       <c r="K36" s="26"/>
     </row>
     <row r="37" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="93"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="110"/>
+      <c r="A37" s="99"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="108"/>
       <c r="E37" s="25">
         <v>2</v>
       </c>
@@ -6556,7 +6554,7 @@
       <c r="I37" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="J37" s="93"/>
+      <c r="J37" s="99"/>
       <c r="K37" s="25"/>
     </row>
     <row r="38" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -6591,16 +6589,16 @@
       <c r="K38" s="40"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="91" t="s">
+      <c r="A39" s="97" t="s">
         <v>315</v>
       </c>
-      <c r="B39" s="91" t="s">
+      <c r="B39" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="91" t="s">
+      <c r="C39" s="97" t="s">
         <v>298</v>
       </c>
-      <c r="D39" s="111" t="s">
+      <c r="D39" s="103" t="s">
         <v>299</v>
       </c>
       <c r="E39">
@@ -6618,15 +6616,15 @@
       <c r="I39" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="J39" s="91" t="s">
+      <c r="J39" s="97" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="92"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="112"/>
+      <c r="A40" s="98"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="104"/>
       <c r="E40">
         <v>2</v>
       </c>
@@ -6642,13 +6640,13 @@
       <c r="I40" s="20" t="s">
         <v>424</v>
       </c>
-      <c r="J40" s="92"/>
+      <c r="J40" s="98"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="92"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="112"/>
+      <c r="A41" s="98"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="104"/>
       <c r="E41">
         <v>3</v>
       </c>
@@ -6664,13 +6662,13 @@
       <c r="I41" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="J41" s="92"/>
+      <c r="J41" s="98"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="92"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="112"/>
+      <c r="A42" s="98"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="104"/>
       <c r="E42">
         <v>4</v>
       </c>
@@ -6686,13 +6684,13 @@
       <c r="I42" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="J42" s="92"/>
+      <c r="J42" s="98"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="92"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="112"/>
+      <c r="A43" s="98"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="104"/>
       <c r="E43">
         <v>5</v>
       </c>
@@ -6708,13 +6706,13 @@
       <c r="I43" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="J43" s="92"/>
+      <c r="J43" s="98"/>
     </row>
     <row r="44" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="93"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="113"/>
+      <c r="A44" s="99"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="105"/>
       <c r="E44">
         <v>6</v>
       </c>
@@ -6727,7 +6725,7 @@
       <c r="I44" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="J44" s="93"/>
+      <c r="J44" s="99"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="28" t="s">
@@ -6755,7 +6753,7 @@
       <c r="I45" s="47" t="s">
         <v>429</v>
       </c>
-      <c r="J45" s="91" t="s">
+      <c r="J45" s="97" t="s">
         <v>375</v>
       </c>
       <c r="K45" s="26"/>
@@ -6778,20 +6776,20 @@
       <c r="I46" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="J46" s="93"/>
+      <c r="J46" s="99"/>
       <c r="K46" s="25"/>
     </row>
     <row r="47" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="91" t="s">
+      <c r="A47" s="97" t="s">
         <v>322</v>
       </c>
-      <c r="B47" s="91" t="s">
+      <c r="B47" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="91" t="s">
+      <c r="C47" s="97" t="s">
         <v>323</v>
       </c>
-      <c r="D47" s="111" t="s">
+      <c r="D47" s="103" t="s">
         <v>324</v>
       </c>
       <c r="E47" s="26">
@@ -6807,16 +6805,16 @@
       <c r="I47" s="47" t="s">
         <v>431</v>
       </c>
-      <c r="J47" s="91" t="s">
+      <c r="J47" s="97" t="s">
         <v>375</v>
       </c>
       <c r="K47" s="26"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="92"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="112"/>
+      <c r="A48" s="98"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="104"/>
       <c r="E48">
         <v>2</v>
       </c>
@@ -6832,13 +6830,13 @@
       <c r="I48" s="20" t="s">
         <v>432</v>
       </c>
-      <c r="J48" s="92"/>
+      <c r="J48" s="98"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" s="93"/>
-      <c r="B49" s="93"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="113"/>
+      <c r="A49" s="99"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="105"/>
       <c r="E49" s="25">
         <v>3</v>
       </c>
@@ -6852,20 +6850,20 @@
       <c r="I49" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="J49" s="93"/>
+      <c r="J49" s="99"/>
       <c r="K49" s="25"/>
     </row>
     <row r="50" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="91" t="s">
+      <c r="A50" s="97" t="s">
         <v>331</v>
       </c>
-      <c r="B50" s="91" t="s">
+      <c r="B50" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="91" t="s">
+      <c r="C50" s="97" t="s">
         <v>323</v>
       </c>
-      <c r="D50" s="111" t="s">
+      <c r="D50" s="103" t="s">
         <v>332</v>
       </c>
       <c r="E50" s="26">
@@ -6881,16 +6879,16 @@
       <c r="I50" s="47" t="s">
         <v>431</v>
       </c>
-      <c r="J50" s="91" t="s">
+      <c r="J50" s="97" t="s">
         <v>375</v>
       </c>
       <c r="K50" s="26"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="92"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="112"/>
+      <c r="A51" s="98"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="104"/>
       <c r="E51">
         <v>2</v>
       </c>
@@ -6906,19 +6904,19 @@
       <c r="I51" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="J51" s="93"/>
+      <c r="J51" s="99"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="91" t="s">
+      <c r="A52" s="97" t="s">
         <v>333</v>
       </c>
-      <c r="B52" s="91" t="s">
+      <c r="B52" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="91" t="s">
+      <c r="C52" s="97" t="s">
         <v>346</v>
       </c>
-      <c r="D52" s="111" t="s">
+      <c r="D52" s="103" t="s">
         <v>334</v>
       </c>
       <c r="E52" s="26">
@@ -6936,16 +6934,16 @@
       <c r="I52" s="47" t="s">
         <v>438</v>
       </c>
-      <c r="J52" s="91" t="s">
+      <c r="J52" s="97" t="s">
         <v>375</v>
       </c>
       <c r="K52" s="26"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="92"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="112"/>
+      <c r="A53" s="98"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="104"/>
       <c r="E53">
         <v>2</v>
       </c>
@@ -6961,13 +6959,13 @@
       <c r="I53" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="J53" s="92"/>
+      <c r="J53" s="98"/>
     </row>
     <row r="54" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="92"/>
-      <c r="B54" s="92"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="112"/>
+      <c r="A54" s="98"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="104"/>
       <c r="E54">
         <v>3</v>
       </c>
@@ -6983,13 +6981,13 @@
       <c r="I54" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="J54" s="92"/>
+      <c r="J54" s="98"/>
     </row>
     <row r="55" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="93"/>
-      <c r="B55" s="93"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="113"/>
+      <c r="A55" s="99"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="105"/>
       <c r="E55" s="25">
         <v>4</v>
       </c>
@@ -7003,20 +7001,20 @@
       <c r="I55" s="27" t="s">
         <v>441</v>
       </c>
-      <c r="J55" s="93"/>
+      <c r="J55" s="99"/>
       <c r="K55" s="25"/>
     </row>
     <row r="56" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="91" t="s">
+      <c r="A56" s="97" t="s">
         <v>348</v>
       </c>
-      <c r="B56" s="91" t="s">
+      <c r="B56" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="88" t="s">
+      <c r="C56" s="94" t="s">
         <v>347</v>
       </c>
-      <c r="D56" s="111" t="s">
+      <c r="D56" s="103" t="s">
         <v>349</v>
       </c>
       <c r="E56">
@@ -7034,15 +7032,15 @@
       <c r="I56" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="J56" s="91" t="s">
+      <c r="J56" s="97" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="93"/>
-      <c r="B57" s="93"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="113"/>
+      <c r="A57" s="99"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="105"/>
       <c r="E57" s="25">
         <v>2</v>
       </c>
@@ -7056,20 +7054,20 @@
       <c r="I57" s="27" t="s">
         <v>443</v>
       </c>
-      <c r="J57" s="93"/>
+      <c r="J57" s="99"/>
       <c r="K57" s="25"/>
     </row>
     <row r="58" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="91" t="s">
+      <c r="A58" s="97" t="s">
         <v>354</v>
       </c>
-      <c r="B58" s="91" t="s">
+      <c r="B58" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="88" t="s">
+      <c r="C58" s="94" t="s">
         <v>355</v>
       </c>
-      <c r="D58" s="111" t="s">
+      <c r="D58" s="103" t="s">
         <v>356</v>
       </c>
       <c r="E58">
@@ -7087,15 +7085,15 @@
       <c r="I58" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="J58" s="91" t="s">
+      <c r="J58" s="97" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="93"/>
-      <c r="B59" s="93"/>
-      <c r="C59" s="90"/>
-      <c r="D59" s="113"/>
+      <c r="A59" s="99"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="105"/>
       <c r="E59" s="25">
         <v>2</v>
       </c>
@@ -7109,18 +7107,18 @@
       <c r="I59" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="J59" s="93"/>
+      <c r="J59" s="99"/>
       <c r="K59" s="25"/>
     </row>
     <row r="60" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="63"/>
-      <c r="B60" s="88" t="s">
+      <c r="B60" s="94" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="88" t="s">
+      <c r="C60" s="94" t="s">
         <v>528</v>
       </c>
-      <c r="D60" s="88" t="s">
+      <c r="D60" s="94" t="s">
         <v>593</v>
       </c>
       <c r="E60" s="64">
@@ -7134,16 +7132,16 @@
       </c>
       <c r="H60" s="68"/>
       <c r="I60" s="68"/>
-      <c r="J60" s="88" t="s">
+      <c r="J60" s="94" t="s">
         <v>375</v>
       </c>
-      <c r="K60" s="99"/>
+      <c r="K60" s="122"/>
     </row>
     <row r="61" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="36"/>
-      <c r="B61" s="89"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="89"/>
+      <c r="B61" s="95"/>
+      <c r="C61" s="95"/>
+      <c r="D61" s="95"/>
       <c r="E61" s="64">
         <v>2</v>
       </c>
@@ -7155,15 +7153,15 @@
       </c>
       <c r="H61" s="68"/>
       <c r="I61" s="68"/>
-      <c r="J61" s="89"/>
-      <c r="K61" s="100"/>
+      <c r="J61" s="95"/>
+      <c r="K61" s="123"/>
       <c r="L61" s="46"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="36"/>
-      <c r="B62" s="89"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="89"/>
+      <c r="B62" s="95"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="95"/>
       <c r="E62" s="64">
         <v>3</v>
       </c>
@@ -7175,14 +7173,14 @@
       </c>
       <c r="H62" s="68"/>
       <c r="I62" s="68"/>
-      <c r="J62" s="89"/>
+      <c r="J62" s="95"/>
       <c r="K62" s="36"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="36"/>
-      <c r="B63" s="89"/>
-      <c r="C63" s="89"/>
-      <c r="D63" s="89"/>
+      <c r="B63" s="95"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="95"/>
       <c r="E63" s="64">
         <v>4</v>
       </c>
@@ -7194,14 +7192,14 @@
       </c>
       <c r="H63" s="68"/>
       <c r="I63" s="68"/>
-      <c r="J63" s="89"/>
+      <c r="J63" s="95"/>
       <c r="K63" s="36"/>
     </row>
     <row r="64" spans="1:12" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="38"/>
-      <c r="B64" s="90"/>
-      <c r="C64" s="90"/>
-      <c r="D64" s="90"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="96"/>
       <c r="E64" s="71">
         <v>5</v>
       </c>
@@ -7217,19 +7215,19 @@
       <c r="I64" s="69" t="s">
         <v>600</v>
       </c>
-      <c r="J64" s="90"/>
+      <c r="J64" s="96"/>
       <c r="K64" s="38"/>
       <c r="L64" s="46"/>
     </row>
     <row r="65" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="63"/>
-      <c r="B65" s="88" t="s">
+      <c r="B65" s="94" t="s">
         <v>179</v>
       </c>
-      <c r="C65" s="88" t="s">
+      <c r="C65" s="94" t="s">
         <v>601</v>
       </c>
-      <c r="D65" s="88" t="s">
+      <c r="D65" s="94" t="s">
         <v>602</v>
       </c>
       <c r="E65" s="64">
@@ -7248,9 +7246,9 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="36"/>
-      <c r="B66" s="89"/>
-      <c r="C66" s="89"/>
-      <c r="D66" s="89"/>
+      <c r="B66" s="95"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="95"/>
       <c r="E66" s="64">
         <v>2</v>
       </c>
@@ -7267,9 +7265,9 @@
     </row>
     <row r="67" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="36"/>
-      <c r="B67" s="89"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="89"/>
+      <c r="B67" s="95"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="95"/>
       <c r="E67" s="64">
         <v>3</v>
       </c>
@@ -7287,9 +7285,9 @@
     </row>
     <row r="68" spans="1:12" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="48"/>
-      <c r="B68" s="90"/>
-      <c r="C68" s="90"/>
-      <c r="D68" s="90"/>
+      <c r="B68" s="96"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="96"/>
       <c r="E68" s="71">
         <v>4</v>
       </c>
@@ -7313,13 +7311,13 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="51"/>
-      <c r="B69" s="88" t="s">
+      <c r="B69" s="94" t="s">
         <v>180</v>
       </c>
-      <c r="C69" s="88" t="s">
+      <c r="C69" s="94" t="s">
         <v>609</v>
       </c>
-      <c r="D69" s="88" t="s">
+      <c r="D69" s="94" t="s">
         <v>610</v>
       </c>
       <c r="E69" s="64">
@@ -7339,9 +7337,9 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="36"/>
-      <c r="B70" s="89"/>
-      <c r="C70" s="89"/>
-      <c r="D70" s="89"/>
+      <c r="B70" s="95"/>
+      <c r="C70" s="95"/>
+      <c r="D70" s="95"/>
       <c r="E70" s="64">
         <v>2</v>
       </c>
@@ -7358,9 +7356,9 @@
     </row>
     <row r="71" spans="1:12" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="38"/>
-      <c r="B71" s="90"/>
-      <c r="C71" s="90"/>
-      <c r="D71" s="90"/>
+      <c r="B71" s="96"/>
+      <c r="C71" s="96"/>
+      <c r="D71" s="96"/>
       <c r="E71" s="71">
         <v>3</v>
       </c>
@@ -7384,13 +7382,13 @@
     </row>
     <row r="72" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="36"/>
-      <c r="B72" s="88" t="s">
+      <c r="B72" s="94" t="s">
         <v>181</v>
       </c>
-      <c r="C72" s="88" t="s">
+      <c r="C72" s="94" t="s">
         <v>618</v>
       </c>
-      <c r="D72" s="88" t="s">
+      <c r="D72" s="94" t="s">
         <v>619</v>
       </c>
       <c r="E72" s="64">
@@ -7410,9 +7408,9 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="36"/>
-      <c r="B73" s="89"/>
-      <c r="C73" s="89"/>
-      <c r="D73" s="89"/>
+      <c r="B73" s="95"/>
+      <c r="C73" s="95"/>
+      <c r="D73" s="95"/>
       <c r="E73" s="64">
         <v>2</v>
       </c>
@@ -7429,9 +7427,9 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="36"/>
-      <c r="B74" s="89"/>
-      <c r="C74" s="89"/>
-      <c r="D74" s="89"/>
+      <c r="B74" s="95"/>
+      <c r="C74" s="95"/>
+      <c r="D74" s="95"/>
       <c r="E74" s="64">
         <v>3</v>
       </c>
@@ -7449,9 +7447,9 @@
     </row>
     <row r="75" spans="1:12" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="38"/>
-      <c r="B75" s="90"/>
-      <c r="C75" s="90"/>
-      <c r="D75" s="90"/>
+      <c r="B75" s="96"/>
+      <c r="C75" s="96"/>
+      <c r="D75" s="96"/>
       <c r="E75" s="71">
         <v>4</v>
       </c>
@@ -7475,13 +7473,13 @@
     </row>
     <row r="76" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="36"/>
-      <c r="B76" s="88" t="s">
+      <c r="B76" s="94" t="s">
         <v>182</v>
       </c>
-      <c r="C76" s="88" t="s">
+      <c r="C76" s="94" t="s">
         <v>625</v>
       </c>
-      <c r="D76" s="88" t="s">
+      <c r="D76" s="94" t="s">
         <v>626</v>
       </c>
       <c r="E76" s="64">
@@ -7500,9 +7498,9 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="36"/>
-      <c r="B77" s="89"/>
-      <c r="C77" s="89"/>
-      <c r="D77" s="89"/>
+      <c r="B77" s="95"/>
+      <c r="C77" s="95"/>
+      <c r="D77" s="95"/>
       <c r="E77" s="64">
         <v>2</v>
       </c>
@@ -7519,9 +7517,9 @@
     </row>
     <row r="78" spans="1:12" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="38"/>
-      <c r="B78" s="90"/>
-      <c r="C78" s="90"/>
-      <c r="D78" s="90"/>
+      <c r="B78" s="96"/>
+      <c r="C78" s="96"/>
+      <c r="D78" s="96"/>
       <c r="E78" s="71">
         <v>3</v>
       </c>
@@ -7545,13 +7543,13 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="36"/>
-      <c r="B79" s="88" t="s">
+      <c r="B79" s="94" t="s">
         <v>183</v>
       </c>
-      <c r="C79" s="88" t="s">
+      <c r="C79" s="94" t="s">
         <v>632</v>
       </c>
-      <c r="D79" s="88" t="s">
+      <c r="D79" s="94" t="s">
         <v>633</v>
       </c>
       <c r="E79" s="64">
@@ -7570,9 +7568,9 @@
     </row>
     <row r="80" spans="1:12" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="38"/>
-      <c r="B80" s="90"/>
-      <c r="C80" s="90"/>
-      <c r="D80" s="90"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="96"/>
+      <c r="D80" s="96"/>
       <c r="E80" s="71">
         <v>2</v>
       </c>
@@ -7596,13 +7594,13 @@
     </row>
     <row r="81" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="36"/>
-      <c r="B81" s="88" t="s">
+      <c r="B81" s="94" t="s">
         <v>184</v>
       </c>
-      <c r="C81" s="88" t="s">
+      <c r="C81" s="94" t="s">
         <v>637</v>
       </c>
-      <c r="D81" s="88" t="s">
+      <c r="D81" s="94" t="s">
         <v>638</v>
       </c>
       <c r="E81" s="64">
@@ -7621,9 +7619,9 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="36"/>
-      <c r="B82" s="89"/>
-      <c r="C82" s="89"/>
-      <c r="D82" s="89"/>
+      <c r="B82" s="95"/>
+      <c r="C82" s="95"/>
+      <c r="D82" s="95"/>
       <c r="E82" s="64">
         <v>2</v>
       </c>
@@ -7640,9 +7638,9 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="36"/>
-      <c r="B83" s="89"/>
-      <c r="C83" s="89"/>
-      <c r="D83" s="89"/>
+      <c r="B83" s="95"/>
+      <c r="C83" s="95"/>
+      <c r="D83" s="95"/>
       <c r="E83" s="64">
         <v>3</v>
       </c>
@@ -7659,9 +7657,9 @@
     </row>
     <row r="84" spans="1:12" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="38"/>
-      <c r="B84" s="90"/>
-      <c r="C84" s="90"/>
-      <c r="D84" s="90"/>
+      <c r="B84" s="96"/>
+      <c r="C84" s="96"/>
+      <c r="D84" s="96"/>
       <c r="E84" s="71">
         <v>4</v>
       </c>
@@ -7684,124 +7682,124 @@
       <c r="L84" s="46"/>
     </row>
     <row r="85" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="88" t="s">
+      <c r="A85" s="94" t="s">
         <v>683</v>
       </c>
-      <c r="B85" s="88" t="s">
+      <c r="B85" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="C85" s="88" t="s">
+      <c r="C85" s="94" t="s">
         <v>518</v>
       </c>
-      <c r="D85" s="88" t="s">
+      <c r="D85" s="94" t="s">
         <v>520</v>
       </c>
-      <c r="E85" s="101">
+      <c r="E85" s="124">
         <v>1</v>
       </c>
-      <c r="F85" s="88" t="s">
+      <c r="F85" s="94" t="s">
         <v>521</v>
       </c>
-      <c r="G85" s="103" t="s">
+      <c r="G85" s="126" t="s">
         <v>525</v>
       </c>
-      <c r="H85" s="89" t="s">
+      <c r="H85" s="95" t="s">
         <v>522</v>
       </c>
-      <c r="I85" s="89" t="s">
+      <c r="I85" s="95" t="s">
         <v>523</v>
       </c>
-      <c r="J85" s="89" t="s">
+      <c r="J85" s="95" t="s">
         <v>375</v>
       </c>
       <c r="K85" s="36"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A86" s="89"/>
-      <c r="B86" s="89"/>
-      <c r="C86" s="89"/>
-      <c r="D86" s="89"/>
-      <c r="E86" s="102"/>
-      <c r="F86" s="89"/>
-      <c r="G86" s="104"/>
-      <c r="H86" s="89"/>
-      <c r="I86" s="89"/>
-      <c r="J86" s="89"/>
+      <c r="A86" s="95"/>
+      <c r="B86" s="95"/>
+      <c r="C86" s="95"/>
+      <c r="D86" s="95"/>
+      <c r="E86" s="125"/>
+      <c r="F86" s="95"/>
+      <c r="G86" s="127"/>
+      <c r="H86" s="95"/>
+      <c r="I86" s="95"/>
+      <c r="J86" s="95"/>
       <c r="K86" s="36"/>
     </row>
     <row r="87" spans="1:12" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="89"/>
-      <c r="B87" s="89"/>
-      <c r="C87" s="89"/>
-      <c r="D87" s="89"/>
-      <c r="E87" s="97">
+      <c r="A87" s="95"/>
+      <c r="B87" s="95"/>
+      <c r="C87" s="95"/>
+      <c r="D87" s="95"/>
+      <c r="E87" s="129">
         <v>2</v>
       </c>
-      <c r="F87" s="89" t="s">
+      <c r="F87" s="95" t="s">
         <v>524</v>
       </c>
-      <c r="G87" s="97"/>
-      <c r="H87" s="89" t="s">
+      <c r="G87" s="129"/>
+      <c r="H87" s="95" t="s">
         <v>671</v>
       </c>
-      <c r="I87" s="89" t="s">
+      <c r="I87" s="95" t="s">
         <v>672</v>
       </c>
-      <c r="J87" s="89"/>
+      <c r="J87" s="95"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A88" s="89"/>
-      <c r="B88" s="89"/>
-      <c r="C88" s="89"/>
-      <c r="D88" s="89"/>
-      <c r="E88" s="97"/>
-      <c r="F88" s="89"/>
-      <c r="G88" s="97"/>
-      <c r="H88" s="89"/>
-      <c r="I88" s="89"/>
-      <c r="J88" s="89"/>
+      <c r="A88" s="95"/>
+      <c r="B88" s="95"/>
+      <c r="C88" s="95"/>
+      <c r="D88" s="95"/>
+      <c r="E88" s="129"/>
+      <c r="F88" s="95"/>
+      <c r="G88" s="129"/>
+      <c r="H88" s="95"/>
+      <c r="I88" s="95"/>
+      <c r="J88" s="95"/>
     </row>
     <row r="89" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="89"/>
-      <c r="B89" s="89"/>
-      <c r="C89" s="89"/>
-      <c r="D89" s="89"/>
-      <c r="E89" s="97">
+      <c r="A89" s="95"/>
+      <c r="B89" s="95"/>
+      <c r="C89" s="95"/>
+      <c r="D89" s="95"/>
+      <c r="E89" s="129">
         <v>3</v>
       </c>
-      <c r="F89" s="89" t="s">
+      <c r="F89" s="95" t="s">
         <v>531</v>
       </c>
-      <c r="G89" s="97" t="s">
+      <c r="G89" s="129" t="s">
         <v>530</v>
       </c>
-      <c r="H89" s="89" t="s">
+      <c r="H89" s="95" t="s">
         <v>673</v>
       </c>
-      <c r="I89" s="89" t="s">
+      <c r="I89" s="95" t="s">
         <v>674</v>
       </c>
-      <c r="J89" s="89"/>
-      <c r="K89" s="105"/>
+      <c r="J89" s="95"/>
+      <c r="K89" s="128"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A90" s="89"/>
-      <c r="B90" s="89"/>
-      <c r="C90" s="89"/>
-      <c r="D90" s="89"/>
-      <c r="E90" s="97"/>
-      <c r="F90" s="89"/>
-      <c r="G90" s="97"/>
-      <c r="H90" s="89"/>
-      <c r="I90" s="89"/>
-      <c r="J90" s="89"/>
-      <c r="K90" s="105"/>
+      <c r="A90" s="95"/>
+      <c r="B90" s="95"/>
+      <c r="C90" s="95"/>
+      <c r="D90" s="95"/>
+      <c r="E90" s="129"/>
+      <c r="F90" s="95"/>
+      <c r="G90" s="129"/>
+      <c r="H90" s="95"/>
+      <c r="I90" s="95"/>
+      <c r="J90" s="95"/>
+      <c r="K90" s="128"/>
     </row>
     <row r="91" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A91" s="89"/>
-      <c r="B91" s="89"/>
-      <c r="C91" s="89"/>
-      <c r="D91" s="89"/>
+      <c r="A91" s="95"/>
+      <c r="B91" s="95"/>
+      <c r="C91" s="95"/>
+      <c r="D91" s="95"/>
       <c r="E91" s="36">
         <v>4</v>
       </c>
@@ -7817,52 +7815,52 @@
       <c r="I91" s="36" t="s">
         <v>534</v>
       </c>
-      <c r="J91" s="89"/>
+      <c r="J91" s="95"/>
     </row>
     <row r="92" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="89"/>
-      <c r="B92" s="89"/>
-      <c r="C92" s="89"/>
-      <c r="D92" s="89"/>
-      <c r="E92" s="97">
+      <c r="A92" s="95"/>
+      <c r="B92" s="95"/>
+      <c r="C92" s="95"/>
+      <c r="D92" s="95"/>
+      <c r="E92" s="129">
         <v>5</v>
       </c>
-      <c r="F92" s="89" t="s">
+      <c r="F92" s="95" t="s">
         <v>535</v>
       </c>
-      <c r="G92" s="97"/>
-      <c r="H92" s="89" t="s">
+      <c r="G92" s="129"/>
+      <c r="H92" s="95" t="s">
         <v>679</v>
       </c>
-      <c r="I92" s="89" t="s">
+      <c r="I92" s="95" t="s">
         <v>680</v>
       </c>
-      <c r="J92" s="89"/>
+      <c r="J92" s="95"/>
     </row>
     <row r="93" spans="1:12" s="25" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="90"/>
-      <c r="B93" s="90"/>
-      <c r="C93" s="90"/>
-      <c r="D93" s="90"/>
-      <c r="E93" s="98"/>
-      <c r="F93" s="90"/>
-      <c r="G93" s="98"/>
-      <c r="H93" s="90"/>
-      <c r="I93" s="90"/>
-      <c r="J93" s="89"/>
+      <c r="A93" s="96"/>
+      <c r="B93" s="96"/>
+      <c r="C93" s="96"/>
+      <c r="D93" s="96"/>
+      <c r="E93" s="130"/>
+      <c r="F93" s="96"/>
+      <c r="G93" s="130"/>
+      <c r="H93" s="96"/>
+      <c r="I93" s="96"/>
+      <c r="J93" s="95"/>
       <c r="L93" s="46"/>
     </row>
     <row r="94" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="88" t="s">
+      <c r="A94" s="94" t="s">
         <v>684</v>
       </c>
-      <c r="B94" s="88" t="s">
+      <c r="B94" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="C94" s="88" t="s">
+      <c r="C94" s="94" t="s">
         <v>536</v>
       </c>
-      <c r="D94" s="88" t="s">
+      <c r="D94" s="94" t="s">
         <v>537</v>
       </c>
       <c r="E94" s="63">
@@ -7880,155 +7878,155 @@
       <c r="I94" s="36" t="s">
         <v>523</v>
       </c>
-      <c r="J94" s="89" t="s">
+      <c r="J94" s="95" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A95" s="89"/>
-      <c r="B95" s="89"/>
-      <c r="C95" s="89"/>
-      <c r="D95" s="89"/>
-      <c r="E95" s="97">
+      <c r="A95" s="95"/>
+      <c r="B95" s="95"/>
+      <c r="C95" s="95"/>
+      <c r="D95" s="95"/>
+      <c r="E95" s="129">
         <v>2</v>
       </c>
-      <c r="F95" s="89" t="s">
+      <c r="F95" s="95" t="s">
         <v>524</v>
       </c>
-      <c r="G95" s="97"/>
-      <c r="H95" s="89" t="s">
+      <c r="G95" s="129"/>
+      <c r="H95" s="95" t="s">
         <v>671</v>
       </c>
-      <c r="I95" s="89" t="s">
+      <c r="I95" s="95" t="s">
         <v>672</v>
       </c>
-      <c r="J95" s="89"/>
+      <c r="J95" s="95"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A96" s="89"/>
-      <c r="B96" s="89"/>
-      <c r="C96" s="89"/>
-      <c r="D96" s="89"/>
-      <c r="E96" s="97"/>
-      <c r="F96" s="89"/>
-      <c r="G96" s="97"/>
-      <c r="H96" s="89"/>
-      <c r="I96" s="89"/>
-      <c r="J96" s="89"/>
+      <c r="A96" s="95"/>
+      <c r="B96" s="95"/>
+      <c r="C96" s="95"/>
+      <c r="D96" s="95"/>
+      <c r="E96" s="129"/>
+      <c r="F96" s="95"/>
+      <c r="G96" s="129"/>
+      <c r="H96" s="95"/>
+      <c r="I96" s="95"/>
+      <c r="J96" s="95"/>
       <c r="K96" s="60"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A97" s="89"/>
-      <c r="B97" s="89"/>
-      <c r="C97" s="89"/>
-      <c r="D97" s="89"/>
-      <c r="E97" s="97">
+      <c r="A97" s="95"/>
+      <c r="B97" s="95"/>
+      <c r="C97" s="95"/>
+      <c r="D97" s="95"/>
+      <c r="E97" s="129">
         <v>3</v>
       </c>
-      <c r="F97" s="97" t="s">
+      <c r="F97" s="129" t="s">
         <v>540</v>
       </c>
-      <c r="G97" s="97" t="s">
+      <c r="G97" s="129" t="s">
         <v>541</v>
       </c>
-      <c r="H97" s="89" t="s">
+      <c r="H97" s="95" t="s">
         <v>677</v>
       </c>
-      <c r="I97" s="89" t="s">
+      <c r="I97" s="95" t="s">
         <v>678</v>
       </c>
-      <c r="J97" s="89"/>
+      <c r="J97" s="95"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A98" s="89"/>
-      <c r="B98" s="89"/>
-      <c r="C98" s="89"/>
-      <c r="D98" s="89"/>
-      <c r="E98" s="97"/>
-      <c r="F98" s="97"/>
-      <c r="G98" s="97"/>
-      <c r="H98" s="89"/>
-      <c r="I98" s="89"/>
-      <c r="J98" s="89"/>
+      <c r="A98" s="95"/>
+      <c r="B98" s="95"/>
+      <c r="C98" s="95"/>
+      <c r="D98" s="95"/>
+      <c r="E98" s="129"/>
+      <c r="F98" s="129"/>
+      <c r="G98" s="129"/>
+      <c r="H98" s="95"/>
+      <c r="I98" s="95"/>
+      <c r="J98" s="95"/>
     </row>
     <row r="99" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="89"/>
-      <c r="B99" s="89"/>
-      <c r="C99" s="89"/>
-      <c r="D99" s="89"/>
-      <c r="E99" s="97">
+      <c r="A99" s="95"/>
+      <c r="B99" s="95"/>
+      <c r="C99" s="95"/>
+      <c r="D99" s="95"/>
+      <c r="E99" s="129">
         <v>4</v>
       </c>
-      <c r="F99" s="89" t="s">
+      <c r="F99" s="95" t="s">
         <v>675</v>
       </c>
-      <c r="G99" s="97">
+      <c r="G99" s="129">
         <v>-8</v>
       </c>
-      <c r="H99" s="89" t="s">
+      <c r="H99" s="95" t="s">
         <v>676</v>
       </c>
-      <c r="I99" s="89" t="s">
+      <c r="I99" s="95" t="s">
         <v>553</v>
       </c>
-      <c r="J99" s="89"/>
+      <c r="J99" s="95"/>
     </row>
     <row r="100" spans="1:12" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="89"/>
-      <c r="B100" s="89"/>
-      <c r="C100" s="89"/>
-      <c r="D100" s="89"/>
-      <c r="E100" s="97"/>
-      <c r="F100" s="89"/>
-      <c r="G100" s="97"/>
-      <c r="H100" s="89"/>
-      <c r="I100" s="89"/>
-      <c r="J100" s="89"/>
+      <c r="A100" s="95"/>
+      <c r="B100" s="95"/>
+      <c r="C100" s="95"/>
+      <c r="D100" s="95"/>
+      <c r="E100" s="129"/>
+      <c r="F100" s="95"/>
+      <c r="G100" s="129"/>
+      <c r="H100" s="95"/>
+      <c r="I100" s="95"/>
+      <c r="J100" s="95"/>
     </row>
     <row r="101" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="89"/>
-      <c r="B101" s="89"/>
-      <c r="C101" s="89"/>
-      <c r="D101" s="89"/>
-      <c r="E101" s="97">
+      <c r="A101" s="95"/>
+      <c r="B101" s="95"/>
+      <c r="C101" s="95"/>
+      <c r="D101" s="95"/>
+      <c r="E101" s="129">
         <v>5</v>
       </c>
-      <c r="F101" s="97" t="s">
+      <c r="F101" s="129" t="s">
         <v>535</v>
       </c>
-      <c r="G101" s="97"/>
-      <c r="H101" s="89" t="s">
+      <c r="G101" s="129"/>
+      <c r="H101" s="95" t="s">
         <v>552</v>
       </c>
-      <c r="I101" s="89" t="s">
+      <c r="I101" s="95" t="s">
         <v>553</v>
       </c>
-      <c r="J101" s="89"/>
+      <c r="J101" s="95"/>
     </row>
     <row r="102" spans="1:12" s="25" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="90"/>
-      <c r="B102" s="90"/>
-      <c r="C102" s="90"/>
-      <c r="D102" s="90"/>
-      <c r="E102" s="98"/>
-      <c r="F102" s="98"/>
-      <c r="G102" s="98"/>
-      <c r="H102" s="90"/>
-      <c r="I102" s="90"/>
-      <c r="J102" s="89"/>
+      <c r="A102" s="96"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="96"/>
+      <c r="D102" s="96"/>
+      <c r="E102" s="130"/>
+      <c r="F102" s="130"/>
+      <c r="G102" s="130"/>
+      <c r="H102" s="96"/>
+      <c r="I102" s="96"/>
+      <c r="J102" s="95"/>
       <c r="L102" s="46"/>
     </row>
     <row r="103" spans="1:12" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="88" t="s">
+      <c r="A103" s="94" t="s">
         <v>685</v>
       </c>
-      <c r="B103" s="88" t="s">
+      <c r="B103" s="94" t="s">
         <v>730</v>
       </c>
-      <c r="C103" s="88" t="s">
+      <c r="C103" s="94" t="s">
         <v>542</v>
       </c>
-      <c r="D103" s="88" t="s">
+      <c r="D103" s="94" t="s">
         <v>543</v>
       </c>
       <c r="E103" s="36">
@@ -8046,15 +8044,15 @@
       <c r="I103" s="36" t="s">
         <v>546</v>
       </c>
-      <c r="J103" s="89" t="s">
+      <c r="J103" s="95" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="89"/>
-      <c r="B104" s="89"/>
-      <c r="C104" s="89"/>
-      <c r="D104" s="89"/>
+      <c r="A104" s="95"/>
+      <c r="B104" s="95"/>
+      <c r="C104" s="95"/>
+      <c r="D104" s="95"/>
       <c r="E104" s="36">
         <v>2</v>
       </c>
@@ -8068,13 +8066,13 @@
       <c r="I104" s="36" t="s">
         <v>682</v>
       </c>
-      <c r="J104" s="89"/>
+      <c r="J104" s="95"/>
     </row>
     <row r="105" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A105" s="89"/>
-      <c r="B105" s="89"/>
-      <c r="C105" s="89"/>
-      <c r="D105" s="89"/>
+      <c r="A105" s="95"/>
+      <c r="B105" s="95"/>
+      <c r="C105" s="95"/>
+      <c r="D105" s="95"/>
       <c r="E105" s="36">
         <v>3</v>
       </c>
@@ -8090,13 +8088,13 @@
       <c r="I105" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="J105" s="89"/>
+      <c r="J105" s="95"/>
     </row>
     <row r="106" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A106" s="89"/>
-      <c r="B106" s="89"/>
-      <c r="C106" s="89"/>
-      <c r="D106" s="89"/>
+      <c r="A106" s="95"/>
+      <c r="B106" s="95"/>
+      <c r="C106" s="95"/>
+      <c r="D106" s="95"/>
       <c r="E106" s="36">
         <v>4</v>
       </c>
@@ -8112,13 +8110,13 @@
       <c r="I106" s="36" t="s">
         <v>551</v>
       </c>
-      <c r="J106" s="89"/>
+      <c r="J106" s="95"/>
     </row>
     <row r="107" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="A107" s="89"/>
-      <c r="B107" s="89"/>
-      <c r="C107" s="89"/>
-      <c r="D107" s="89"/>
+      <c r="A107" s="95"/>
+      <c r="B107" s="95"/>
+      <c r="C107" s="95"/>
+      <c r="D107" s="95"/>
       <c r="E107" s="36">
         <v>5</v>
       </c>
@@ -8134,13 +8132,13 @@
       <c r="I107" s="36" t="s">
         <v>553</v>
       </c>
-      <c r="J107" s="89"/>
+      <c r="J107" s="95"/>
     </row>
     <row r="108" spans="1:12" s="25" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A108" s="90"/>
-      <c r="B108" s="90"/>
-      <c r="C108" s="90"/>
-      <c r="D108" s="90"/>
+      <c r="A108" s="96"/>
+      <c r="B108" s="96"/>
+      <c r="C108" s="96"/>
+      <c r="D108" s="96"/>
       <c r="E108" s="36">
         <v>6</v>
       </c>
@@ -8154,20 +8152,20 @@
       <c r="I108" s="38" t="s">
         <v>553</v>
       </c>
-      <c r="J108" s="89"/>
+      <c r="J108" s="95"/>
       <c r="L108" s="46"/>
     </row>
     <row r="109" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A109" s="88" t="s">
+      <c r="A109" s="94" t="s">
         <v>686</v>
       </c>
-      <c r="B109" s="91" t="s">
+      <c r="B109" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="C109" s="88" t="s">
+      <c r="C109" s="94" t="s">
         <v>542</v>
       </c>
-      <c r="D109" s="88" t="s">
+      <c r="D109" s="94" t="s">
         <v>554</v>
       </c>
       <c r="E109" s="36">
@@ -8185,16 +8183,16 @@
       <c r="I109" s="36" t="s">
         <v>546</v>
       </c>
-      <c r="J109" s="89" t="s">
+      <c r="J109" s="95" t="s">
         <v>382</v>
       </c>
       <c r="K109" s="36"/>
     </row>
     <row r="110" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A110" s="89"/>
-      <c r="B110" s="92"/>
-      <c r="C110" s="89"/>
-      <c r="D110" s="89"/>
+      <c r="A110" s="95"/>
+      <c r="B110" s="98"/>
+      <c r="C110" s="95"/>
+      <c r="D110" s="95"/>
       <c r="E110" s="36">
         <v>2</v>
       </c>
@@ -8208,14 +8206,14 @@
       <c r="I110" s="36" t="s">
         <v>672</v>
       </c>
-      <c r="J110" s="89"/>
+      <c r="J110" s="95"/>
       <c r="K110" s="36"/>
     </row>
     <row r="111" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A111" s="89"/>
-      <c r="B111" s="92"/>
-      <c r="C111" s="89"/>
-      <c r="D111" s="89"/>
+      <c r="A111" s="95"/>
+      <c r="B111" s="98"/>
+      <c r="C111" s="95"/>
+      <c r="D111" s="95"/>
       <c r="E111" s="36">
         <v>3</v>
       </c>
@@ -8231,13 +8229,13 @@
       <c r="I111" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="J111" s="89"/>
+      <c r="J111" s="95"/>
     </row>
     <row r="112" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A112" s="89"/>
-      <c r="B112" s="92"/>
-      <c r="C112" s="89"/>
-      <c r="D112" s="89"/>
+      <c r="A112" s="95"/>
+      <c r="B112" s="98"/>
+      <c r="C112" s="95"/>
+      <c r="D112" s="95"/>
       <c r="E112" s="36">
         <v>4</v>
       </c>
@@ -8253,13 +8251,13 @@
       <c r="I112" s="36" t="s">
         <v>551</v>
       </c>
-      <c r="J112" s="89"/>
+      <c r="J112" s="95"/>
     </row>
     <row r="113" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="89"/>
-      <c r="B113" s="92"/>
-      <c r="C113" s="89"/>
-      <c r="D113" s="89"/>
+      <c r="A113" s="95"/>
+      <c r="B113" s="98"/>
+      <c r="C113" s="95"/>
+      <c r="D113" s="95"/>
       <c r="E113" s="36">
         <v>5</v>
       </c>
@@ -8275,41 +8273,41 @@
       <c r="I113" s="36" t="s">
         <v>559</v>
       </c>
-      <c r="J113" s="89"/>
+      <c r="J113" s="95"/>
     </row>
     <row r="114" spans="1:12" s="25" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A114" s="136"/>
-      <c r="B114" s="135"/>
-      <c r="C114" s="136"/>
-      <c r="D114" s="136"/>
+      <c r="A114" s="95"/>
+      <c r="B114" s="98"/>
+      <c r="C114" s="95"/>
+      <c r="D114" s="95"/>
       <c r="E114" s="36">
         <v>6</v>
       </c>
-      <c r="F114" s="137" t="s">
+      <c r="F114" s="36" t="s">
         <v>535</v>
       </c>
-      <c r="G114" s="137"/>
-      <c r="H114" s="137" t="s">
+      <c r="G114" s="36"/>
+      <c r="H114" s="36" t="s">
         <v>558</v>
       </c>
-      <c r="I114" s="137" t="s">
+      <c r="I114" s="36" t="s">
         <v>560</v>
       </c>
-      <c r="J114" s="136"/>
-      <c r="K114" s="128"/>
+      <c r="J114" s="95"/>
+      <c r="K114"/>
       <c r="L114" s="46"/>
     </row>
     <row r="115" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="138" t="s">
+      <c r="A115" s="131" t="s">
         <v>687</v>
       </c>
-      <c r="B115" s="91" t="s">
+      <c r="B115" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="C115" s="88" t="s">
+      <c r="C115" s="94" t="s">
         <v>542</v>
       </c>
-      <c r="D115" s="88" t="s">
+      <c r="D115" s="94" t="s">
         <v>561</v>
       </c>
       <c r="E115" s="81">
@@ -8318,7 +8316,7 @@
       <c r="F115" s="67" t="s">
         <v>544</v>
       </c>
-      <c r="G115" s="139" t="s">
+      <c r="G115" s="89" t="s">
         <v>519</v>
       </c>
       <c r="H115" s="67" t="s">
@@ -8327,244 +8325,244 @@
       <c r="I115" s="67" t="s">
         <v>546</v>
       </c>
-      <c r="J115" s="131" t="s">
+      <c r="J115" s="87" t="s">
         <v>382</v>
       </c>
       <c r="K115" s="82"/>
     </row>
     <row r="116" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="140"/>
-      <c r="B116" s="135"/>
-      <c r="C116" s="136"/>
-      <c r="D116" s="136"/>
-      <c r="E116" s="132">
+      <c r="A116" s="132"/>
+      <c r="B116" s="98"/>
+      <c r="C116" s="95"/>
+      <c r="D116" s="95"/>
+      <c r="E116" s="65">
         <v>2</v>
       </c>
-      <c r="F116" s="126" t="s">
+      <c r="F116" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="G116" s="141"/>
-      <c r="H116" s="126" t="s">
+      <c r="G116" s="90"/>
+      <c r="H116" s="51" t="s">
         <v>671</v>
       </c>
-      <c r="I116" s="126" t="s">
+      <c r="I116" s="51" t="s">
         <v>671</v>
       </c>
-      <c r="J116" s="133"/>
+      <c r="J116" s="79"/>
       <c r="K116" s="84"/>
     </row>
     <row r="117" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A117" s="140"/>
-      <c r="B117" s="135"/>
-      <c r="C117" s="136"/>
-      <c r="D117" s="136"/>
-      <c r="E117" s="132">
+      <c r="A117" s="132"/>
+      <c r="B117" s="98"/>
+      <c r="C117" s="95"/>
+      <c r="D117" s="95"/>
+      <c r="E117" s="65">
         <v>3</v>
       </c>
-      <c r="F117" s="126" t="s">
+      <c r="F117" s="51" t="s">
         <v>538</v>
       </c>
-      <c r="G117" s="125" t="s">
+      <c r="G117" s="30" t="s">
         <v>539</v>
       </c>
-      <c r="H117" s="126" t="s">
+      <c r="H117" s="51" t="s">
         <v>548</v>
       </c>
-      <c r="I117" s="126" t="s">
+      <c r="I117" s="51" t="s">
         <v>549</v>
       </c>
-      <c r="J117" s="133"/>
+      <c r="J117" s="79"/>
       <c r="K117" s="84"/>
     </row>
     <row r="118" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A118" s="140"/>
-      <c r="B118" s="135"/>
-      <c r="C118" s="136"/>
-      <c r="D118" s="136"/>
-      <c r="E118" s="132">
+      <c r="A118" s="132"/>
+      <c r="B118" s="98"/>
+      <c r="C118" s="95"/>
+      <c r="D118" s="95"/>
+      <c r="E118" s="65">
         <v>4</v>
       </c>
-      <c r="F118" s="125" t="s">
+      <c r="F118" s="30" t="s">
         <v>540</v>
       </c>
-      <c r="G118" s="125" t="s">
+      <c r="G118" s="30" t="s">
         <v>541</v>
       </c>
-      <c r="H118" s="126" t="s">
+      <c r="H118" s="51" t="s">
         <v>550</v>
       </c>
-      <c r="I118" s="126" t="s">
+      <c r="I118" s="51" t="s">
         <v>551</v>
       </c>
-      <c r="J118" s="133"/>
+      <c r="J118" s="79"/>
       <c r="K118" s="84"/>
     </row>
     <row r="119" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="140"/>
-      <c r="B119" s="135"/>
-      <c r="C119" s="136"/>
-      <c r="D119" s="136"/>
-      <c r="E119" s="132">
+      <c r="A119" s="132"/>
+      <c r="B119" s="98"/>
+      <c r="C119" s="95"/>
+      <c r="D119" s="95"/>
+      <c r="E119" s="65">
         <v>5</v>
       </c>
-      <c r="F119" s="126" t="s">
+      <c r="F119" s="51" t="s">
         <v>562</v>
       </c>
-      <c r="G119" s="125">
+      <c r="G119" s="30">
         <v>8</v>
       </c>
-      <c r="H119" s="126" t="s">
+      <c r="H119" s="51" t="s">
         <v>568</v>
       </c>
-      <c r="I119" s="126" t="s">
+      <c r="I119" s="51" t="s">
         <v>559</v>
       </c>
-      <c r="J119" s="133"/>
+      <c r="J119" s="79"/>
       <c r="K119" s="84"/>
     </row>
     <row r="120" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="140"/>
-      <c r="B120" s="135"/>
-      <c r="C120" s="136"/>
-      <c r="D120" s="136"/>
-      <c r="E120" s="132">
+      <c r="A120" s="132"/>
+      <c r="B120" s="98"/>
+      <c r="C120" s="95"/>
+      <c r="D120" s="95"/>
+      <c r="E120" s="65">
         <v>6</v>
       </c>
-      <c r="F120" s="126" t="s">
+      <c r="F120" s="51" t="s">
         <v>563</v>
       </c>
-      <c r="G120" s="125">
+      <c r="G120" s="30">
         <v>8</v>
       </c>
-      <c r="H120" s="126" t="s">
+      <c r="H120" s="51" t="s">
         <v>568</v>
       </c>
-      <c r="I120" s="126" t="s">
+      <c r="I120" s="51" t="s">
         <v>559</v>
       </c>
-      <c r="J120" s="133"/>
+      <c r="J120" s="79"/>
       <c r="K120" s="84"/>
     </row>
     <row r="121" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="140"/>
-      <c r="B121" s="135"/>
-      <c r="C121" s="136"/>
-      <c r="D121" s="136"/>
-      <c r="E121" s="132">
+      <c r="A121" s="132"/>
+      <c r="B121" s="98"/>
+      <c r="C121" s="95"/>
+      <c r="D121" s="95"/>
+      <c r="E121" s="65">
         <v>7</v>
       </c>
-      <c r="F121" s="126" t="s">
+      <c r="F121" s="51" t="s">
         <v>564</v>
       </c>
-      <c r="G121" s="125">
+      <c r="G121" s="30">
         <v>8</v>
       </c>
-      <c r="H121" s="126" t="s">
+      <c r="H121" s="51" t="s">
         <v>568</v>
       </c>
-      <c r="I121" s="126" t="s">
+      <c r="I121" s="51" t="s">
         <v>559</v>
       </c>
-      <c r="J121" s="133"/>
+      <c r="J121" s="79"/>
       <c r="K121" s="84"/>
     </row>
     <row r="122" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="140"/>
-      <c r="B122" s="135"/>
-      <c r="C122" s="136"/>
-      <c r="D122" s="136"/>
-      <c r="E122" s="132">
+      <c r="A122" s="132"/>
+      <c r="B122" s="98"/>
+      <c r="C122" s="95"/>
+      <c r="D122" s="95"/>
+      <c r="E122" s="65">
         <v>8</v>
       </c>
-      <c r="F122" s="126" t="s">
+      <c r="F122" s="51" t="s">
         <v>565</v>
       </c>
-      <c r="G122" s="125">
+      <c r="G122" s="30">
         <v>8</v>
       </c>
-      <c r="H122" s="126" t="s">
+      <c r="H122" s="51" t="s">
         <v>568</v>
       </c>
-      <c r="I122" s="126" t="s">
+      <c r="I122" s="51" t="s">
         <v>559</v>
       </c>
-      <c r="J122" s="133"/>
+      <c r="J122" s="79"/>
       <c r="K122" s="84"/>
     </row>
     <row r="123" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="140"/>
-      <c r="B123" s="135"/>
-      <c r="C123" s="136"/>
-      <c r="D123" s="136"/>
-      <c r="E123" s="132">
+      <c r="A123" s="132"/>
+      <c r="B123" s="98"/>
+      <c r="C123" s="95"/>
+      <c r="D123" s="95"/>
+      <c r="E123" s="65">
         <v>9</v>
       </c>
-      <c r="F123" s="126" t="s">
+      <c r="F123" s="51" t="s">
         <v>566</v>
       </c>
-      <c r="G123" s="125">
+      <c r="G123" s="30">
         <v>8</v>
       </c>
-      <c r="H123" s="126" t="s">
+      <c r="H123" s="51" t="s">
         <v>568</v>
       </c>
-      <c r="I123" s="126" t="s">
+      <c r="I123" s="51" t="s">
         <v>559</v>
       </c>
-      <c r="J123" s="133"/>
+      <c r="J123" s="79"/>
       <c r="K123" s="84"/>
     </row>
     <row r="124" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="140"/>
-      <c r="B124" s="135"/>
-      <c r="C124" s="136"/>
-      <c r="D124" s="136"/>
-      <c r="E124" s="132">
+      <c r="A124" s="132"/>
+      <c r="B124" s="98"/>
+      <c r="C124" s="95"/>
+      <c r="D124" s="95"/>
+      <c r="E124" s="65">
         <v>10</v>
       </c>
-      <c r="F124" s="126" t="s">
+      <c r="F124" s="51" t="s">
         <v>570</v>
       </c>
-      <c r="G124" s="125">
+      <c r="G124" s="30">
         <v>8</v>
       </c>
-      <c r="H124" s="126" t="s">
+      <c r="H124" s="51" t="s">
         <v>568</v>
       </c>
-      <c r="I124" s="126" t="s">
+      <c r="I124" s="51" t="s">
         <v>559</v>
       </c>
-      <c r="J124" s="133"/>
+      <c r="J124" s="79"/>
       <c r="K124" s="84"/>
     </row>
     <row r="125" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A125" s="140"/>
-      <c r="B125" s="135"/>
-      <c r="C125" s="136"/>
-      <c r="D125" s="136"/>
-      <c r="E125" s="132">
+      <c r="A125" s="132"/>
+      <c r="B125" s="98"/>
+      <c r="C125" s="95"/>
+      <c r="D125" s="95"/>
+      <c r="E125" s="65">
         <v>11</v>
       </c>
-      <c r="F125" s="126" t="s">
+      <c r="F125" s="51" t="s">
         <v>567</v>
       </c>
-      <c r="G125" s="125">
+      <c r="G125" s="30">
         <v>8</v>
       </c>
-      <c r="H125" s="126" t="s">
+      <c r="H125" s="51" t="s">
         <v>568</v>
       </c>
-      <c r="I125" s="126" t="s">
+      <c r="I125" s="51" t="s">
         <v>559</v>
       </c>
-      <c r="J125" s="133"/>
+      <c r="J125" s="79"/>
       <c r="K125" s="84"/>
     </row>
     <row r="126" spans="1:12" s="25" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A126" s="142"/>
-      <c r="B126" s="93"/>
-      <c r="C126" s="90"/>
-      <c r="D126" s="90"/>
+      <c r="A126" s="133"/>
+      <c r="B126" s="99"/>
+      <c r="C126" s="96"/>
+      <c r="D126" s="96"/>
       <c r="E126" s="66">
         <v>12</v>
       </c>
@@ -8578,21 +8576,21 @@
       <c r="I126" s="48" t="s">
         <v>560</v>
       </c>
-      <c r="J126" s="134"/>
+      <c r="J126" s="88"/>
       <c r="K126" s="86"/>
       <c r="L126" s="46"/>
     </row>
     <row r="127" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A127" s="135" t="s">
+      <c r="A127" s="98" t="s">
         <v>688</v>
       </c>
-      <c r="B127" s="135" t="s">
+      <c r="B127" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="C127" s="136" t="s">
+      <c r="C127" s="95" t="s">
         <v>571</v>
       </c>
-      <c r="D127" s="136" t="s">
+      <c r="D127" s="95" t="s">
         <v>572</v>
       </c>
       <c r="E127" s="65">
@@ -8610,15 +8608,15 @@
       <c r="I127" s="51" t="s">
         <v>692</v>
       </c>
-      <c r="J127" s="135" t="s">
+      <c r="J127" s="98" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="92"/>
-      <c r="B128" s="92"/>
-      <c r="C128" s="89"/>
-      <c r="D128" s="89"/>
+      <c r="A128" s="98"/>
+      <c r="B128" s="98"/>
+      <c r="C128" s="95"/>
+      <c r="D128" s="95"/>
       <c r="E128" s="65">
         <v>2</v>
       </c>
@@ -8634,13 +8632,13 @@
       <c r="I128" s="51" t="s">
         <v>576</v>
       </c>
-      <c r="J128" s="92"/>
+      <c r="J128" s="98"/>
     </row>
     <row r="129" spans="1:12" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A129" s="93"/>
-      <c r="B129" s="93"/>
-      <c r="C129" s="90"/>
-      <c r="D129" s="90"/>
+      <c r="A129" s="99"/>
+      <c r="B129" s="99"/>
+      <c r="C129" s="96"/>
+      <c r="D129" s="96"/>
       <c r="E129" s="66">
         <v>3</v>
       </c>
@@ -8654,20 +8652,20 @@
       <c r="I129" s="48" t="s">
         <v>576</v>
       </c>
-      <c r="J129" s="93"/>
+      <c r="J129" s="99"/>
       <c r="L129" s="46"/>
     </row>
     <row r="130" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A130" s="91" t="s">
+      <c r="A130" s="97" t="s">
         <v>689</v>
       </c>
-      <c r="B130" s="91" t="s">
+      <c r="B130" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="C130" s="88" t="s">
+      <c r="C130" s="94" t="s">
         <v>571</v>
       </c>
-      <c r="D130" s="88" t="s">
+      <c r="D130" s="94" t="s">
         <v>578</v>
       </c>
       <c r="E130" s="65">
@@ -8685,15 +8683,15 @@
       <c r="I130" s="51" t="s">
         <v>692</v>
       </c>
-      <c r="J130" s="91" t="s">
+      <c r="J130" s="97" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A131" s="92"/>
-      <c r="B131" s="92"/>
-      <c r="C131" s="89"/>
-      <c r="D131" s="89"/>
+      <c r="A131" s="98"/>
+      <c r="B131" s="98"/>
+      <c r="C131" s="95"/>
+      <c r="D131" s="95"/>
       <c r="E131" s="65">
         <v>2</v>
       </c>
@@ -8709,13 +8707,13 @@
       <c r="I131" s="51" t="s">
         <v>582</v>
       </c>
-      <c r="J131" s="92"/>
+      <c r="J131" s="98"/>
     </row>
     <row r="132" spans="1:12" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="93"/>
-      <c r="B132" s="93"/>
-      <c r="C132" s="90"/>
-      <c r="D132" s="90"/>
+      <c r="A132" s="99"/>
+      <c r="B132" s="99"/>
+      <c r="C132" s="96"/>
+      <c r="D132" s="96"/>
       <c r="E132" s="66">
         <v>3</v>
       </c>
@@ -8729,20 +8727,20 @@
       <c r="I132" s="48" t="s">
         <v>694</v>
       </c>
-      <c r="J132" s="93"/>
+      <c r="J132" s="99"/>
       <c r="L132" s="46"/>
     </row>
     <row r="133" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A133" s="91" t="s">
+      <c r="A133" s="97" t="s">
         <v>702</v>
       </c>
-      <c r="B133" s="91" t="s">
+      <c r="B133" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="C133" s="88" t="s">
+      <c r="C133" s="94" t="s">
         <v>571</v>
       </c>
-      <c r="D133" s="88" t="s">
+      <c r="D133" s="94" t="s">
         <v>583</v>
       </c>
       <c r="E133" s="65">
@@ -8760,15 +8758,15 @@
       <c r="I133" s="51" t="s">
         <v>586</v>
       </c>
-      <c r="J133" s="91" t="s">
+      <c r="J133" s="97" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A134" s="92"/>
-      <c r="B134" s="92"/>
-      <c r="C134" s="89"/>
-      <c r="D134" s="89"/>
+      <c r="A134" s="98"/>
+      <c r="B134" s="98"/>
+      <c r="C134" s="95"/>
+      <c r="D134" s="95"/>
       <c r="E134" s="65">
         <v>2</v>
       </c>
@@ -8782,13 +8780,13 @@
       <c r="I134" s="51" t="s">
         <v>589</v>
       </c>
-      <c r="J134" s="92"/>
+      <c r="J134" s="98"/>
     </row>
     <row r="135" spans="1:12" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A135" s="93"/>
-      <c r="B135" s="93"/>
-      <c r="C135" s="90"/>
-      <c r="D135" s="90"/>
+      <c r="A135" s="99"/>
+      <c r="B135" s="99"/>
+      <c r="C135" s="96"/>
+      <c r="D135" s="96"/>
       <c r="E135" s="66">
         <v>3</v>
       </c>
@@ -8802,20 +8800,20 @@
       <c r="I135" s="48" t="s">
         <v>592</v>
       </c>
-      <c r="J135" s="93"/>
+      <c r="J135" s="99"/>
       <c r="L135" s="46"/>
     </row>
     <row r="136" spans="1:12" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="91" t="s">
+      <c r="A136" s="97" t="s">
         <v>703</v>
       </c>
-      <c r="B136" s="91" t="s">
+      <c r="B136" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="C136" s="88" t="s">
+      <c r="C136" s="94" t="s">
         <v>571</v>
       </c>
-      <c r="D136" s="88" t="s">
+      <c r="D136" s="94" t="s">
         <v>695</v>
       </c>
       <c r="E136" s="65">
@@ -8833,15 +8831,15 @@
       <c r="I136" s="51" t="s">
         <v>586</v>
       </c>
-      <c r="J136" s="91" t="s">
+      <c r="J136" s="97" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="92"/>
-      <c r="B137" s="92"/>
-      <c r="C137" s="89"/>
-      <c r="D137" s="89"/>
+      <c r="A137" s="98"/>
+      <c r="B137" s="98"/>
+      <c r="C137" s="95"/>
+      <c r="D137" s="95"/>
       <c r="E137" s="65">
         <v>2</v>
       </c>
@@ -8855,13 +8853,13 @@
       <c r="I137" s="51" t="s">
         <v>700</v>
       </c>
-      <c r="J137" s="92"/>
+      <c r="J137" s="98"/>
     </row>
     <row r="138" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="93"/>
-      <c r="B138" s="93"/>
-      <c r="C138" s="90"/>
-      <c r="D138" s="90"/>
+      <c r="A138" s="99"/>
+      <c r="B138" s="99"/>
+      <c r="C138" s="96"/>
+      <c r="D138" s="96"/>
       <c r="E138" s="66">
         <v>3</v>
       </c>
@@ -8875,20 +8873,20 @@
       <c r="I138" s="48" t="s">
         <v>701</v>
       </c>
-      <c r="J138" s="93"/>
+      <c r="J138" s="99"/>
       <c r="K138" s="25"/>
     </row>
     <row r="139" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="94" t="s">
+      <c r="A139" s="100" t="s">
         <v>713</v>
       </c>
-      <c r="B139" s="91" t="s">
+      <c r="B139" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="C139" s="88" t="s">
+      <c r="C139" s="94" t="s">
         <v>571</v>
       </c>
-      <c r="D139" s="88" t="s">
+      <c r="D139" s="94" t="s">
         <v>704</v>
       </c>
       <c r="E139" s="81">
@@ -8904,16 +8902,16 @@
       <c r="I139" s="67" t="s">
         <v>714</v>
       </c>
-      <c r="J139" s="91" t="s">
+      <c r="J139" s="97" t="s">
         <v>382</v>
       </c>
       <c r="K139" s="82"/>
     </row>
     <row r="140" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="95"/>
-      <c r="B140" s="92"/>
-      <c r="C140" s="89"/>
-      <c r="D140" s="89"/>
+      <c r="A140" s="101"/>
+      <c r="B140" s="98"/>
+      <c r="C140" s="95"/>
+      <c r="D140" s="95"/>
       <c r="E140" s="65">
         <v>2</v>
       </c>
@@ -8929,14 +8927,14 @@
       <c r="I140" s="51" t="s">
         <v>715</v>
       </c>
-      <c r="J140" s="92"/>
+      <c r="J140" s="98"/>
       <c r="K140" s="84"/>
     </row>
     <row r="141" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="96"/>
-      <c r="B141" s="93"/>
-      <c r="C141" s="90"/>
-      <c r="D141" s="90"/>
+      <c r="A141" s="102"/>
+      <c r="B141" s="99"/>
+      <c r="C141" s="96"/>
+      <c r="D141" s="96"/>
       <c r="E141" s="66">
         <v>3</v>
       </c>
@@ -8952,20 +8950,20 @@
       <c r="I141" s="48" t="s">
         <v>712</v>
       </c>
-      <c r="J141" s="93"/>
+      <c r="J141" s="99"/>
       <c r="K141" s="86"/>
     </row>
     <row r="142" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="94" t="s">
+      <c r="A142" s="100" t="s">
         <v>716</v>
       </c>
-      <c r="B142" s="91" t="s">
+      <c r="B142" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="C142" s="88" t="s">
+      <c r="C142" s="94" t="s">
         <v>518</v>
       </c>
-      <c r="D142" s="88" t="s">
+      <c r="D142" s="94" t="s">
         <v>727</v>
       </c>
       <c r="E142" s="81">
@@ -8981,54 +8979,54 @@
       <c r="I142" s="67" t="s">
         <v>722</v>
       </c>
-      <c r="J142" s="91" t="s">
+      <c r="J142" s="97" t="s">
         <v>375</v>
       </c>
       <c r="K142" s="82"/>
     </row>
     <row r="143" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="95"/>
-      <c r="B143" s="135"/>
-      <c r="C143" s="136"/>
-      <c r="D143" s="136"/>
-      <c r="E143" s="132">
+      <c r="A143" s="101"/>
+      <c r="B143" s="98"/>
+      <c r="C143" s="95"/>
+      <c r="D143" s="95"/>
+      <c r="E143" s="65">
         <v>2</v>
       </c>
-      <c r="F143" s="126" t="s">
+      <c r="F143" s="51" t="s">
         <v>718</v>
       </c>
-      <c r="G143" s="125"/>
-      <c r="H143" s="126"/>
-      <c r="I143" s="126"/>
-      <c r="J143" s="135"/>
+      <c r="G143" s="30"/>
+      <c r="H143" s="51"/>
+      <c r="I143" s="51"/>
+      <c r="J143" s="98"/>
       <c r="K143" s="84"/>
     </row>
     <row r="144" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="95"/>
-      <c r="B144" s="135"/>
-      <c r="C144" s="136"/>
-      <c r="D144" s="136"/>
-      <c r="E144" s="132">
+      <c r="A144" s="101"/>
+      <c r="B144" s="98"/>
+      <c r="C144" s="95"/>
+      <c r="D144" s="95"/>
+      <c r="E144" s="65">
         <v>3</v>
       </c>
-      <c r="F144" s="126" t="s">
+      <c r="F144" s="51" t="s">
         <v>719</v>
       </c>
-      <c r="G144" s="125"/>
-      <c r="H144" s="126" t="s">
+      <c r="G144" s="30"/>
+      <c r="H144" s="51" t="s">
         <v>723</v>
       </c>
-      <c r="I144" s="126" t="s">
+      <c r="I144" s="51" t="s">
         <v>724</v>
       </c>
-      <c r="J144" s="135"/>
+      <c r="J144" s="98"/>
       <c r="K144" s="84"/>
     </row>
     <row r="145" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="96"/>
-      <c r="B145" s="93"/>
-      <c r="C145" s="90"/>
-      <c r="D145" s="90"/>
+      <c r="A145" s="102"/>
+      <c r="B145" s="99"/>
+      <c r="C145" s="96"/>
+      <c r="D145" s="96"/>
       <c r="E145" s="66">
         <v>4</v>
       </c>
@@ -9042,20 +9040,20 @@
       <c r="I145" s="48" t="s">
         <v>726</v>
       </c>
-      <c r="J145" s="93"/>
+      <c r="J145" s="99"/>
       <c r="K145" s="86"/>
     </row>
     <row r="146" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="94" t="s">
+      <c r="A146" s="100" t="s">
         <v>729</v>
       </c>
-      <c r="B146" s="91" t="s">
+      <c r="B146" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="C146" s="88" t="s">
+      <c r="C146" s="94" t="s">
         <v>518</v>
       </c>
-      <c r="D146" s="88" t="s">
+      <c r="D146" s="94" t="s">
         <v>728</v>
       </c>
       <c r="E146" s="81">
@@ -9071,54 +9069,54 @@
       <c r="I146" s="67" t="s">
         <v>722</v>
       </c>
-      <c r="J146" s="91" t="s">
+      <c r="J146" s="97" t="s">
         <v>375</v>
       </c>
       <c r="K146" s="82"/>
     </row>
     <row r="147" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="95"/>
-      <c r="B147" s="135"/>
-      <c r="C147" s="136"/>
-      <c r="D147" s="136"/>
-      <c r="E147" s="132">
+      <c r="A147" s="101"/>
+      <c r="B147" s="98"/>
+      <c r="C147" s="95"/>
+      <c r="D147" s="95"/>
+      <c r="E147" s="65">
         <v>2</v>
       </c>
-      <c r="F147" s="126" t="s">
+      <c r="F147" s="51" t="s">
         <v>718</v>
       </c>
-      <c r="G147" s="125"/>
-      <c r="H147" s="126"/>
-      <c r="I147" s="126"/>
-      <c r="J147" s="135"/>
+      <c r="G147" s="30"/>
+      <c r="H147" s="51"/>
+      <c r="I147" s="51"/>
+      <c r="J147" s="98"/>
       <c r="K147" s="84"/>
     </row>
     <row r="148" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="95"/>
-      <c r="B148" s="135"/>
-      <c r="C148" s="136"/>
-      <c r="D148" s="136"/>
-      <c r="E148" s="132">
+      <c r="A148" s="101"/>
+      <c r="B148" s="98"/>
+      <c r="C148" s="95"/>
+      <c r="D148" s="95"/>
+      <c r="E148" s="65">
         <v>3</v>
       </c>
-      <c r="F148" s="126" t="s">
+      <c r="F148" s="51" t="s">
         <v>719</v>
       </c>
-      <c r="G148" s="125"/>
-      <c r="H148" s="126" t="s">
+      <c r="G148" s="30"/>
+      <c r="H148" s="51" t="s">
         <v>723</v>
       </c>
-      <c r="I148" s="126" t="s">
+      <c r="I148" s="51" t="s">
         <v>724</v>
       </c>
-      <c r="J148" s="135"/>
+      <c r="J148" s="98"/>
       <c r="K148" s="84"/>
     </row>
     <row r="149" spans="1:12" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="96"/>
-      <c r="B149" s="93"/>
-      <c r="C149" s="90"/>
-      <c r="D149" s="90"/>
+      <c r="A149" s="102"/>
+      <c r="B149" s="99"/>
+      <c r="C149" s="96"/>
+      <c r="D149" s="96"/>
       <c r="E149" s="66">
         <v>4</v>
       </c>
@@ -9132,58 +9130,58 @@
       <c r="I149" s="48" t="s">
         <v>726</v>
       </c>
-      <c r="J149" s="93"/>
+      <c r="J149" s="99"/>
       <c r="K149" s="86"/>
     </row>
     <row r="150" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A150" s="80"/>
-      <c r="B150" s="91" t="s">
+      <c r="B150" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="C150" s="88" t="s">
+      <c r="C150" s="94" t="s">
         <v>449</v>
       </c>
-      <c r="D150" s="88" t="s">
+      <c r="D150" s="94" t="s">
         <v>458</v>
       </c>
       <c r="E150" s="81"/>
-      <c r="F150" s="146" t="s">
+      <c r="F150" s="92" t="s">
         <v>450</v>
       </c>
       <c r="G150" s="26"/>
       <c r="H150" s="26"/>
       <c r="I150" s="26"/>
-      <c r="J150" s="131"/>
+      <c r="J150" s="87"/>
       <c r="K150" s="82"/>
     </row>
     <row r="151" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="83"/>
-      <c r="B151" s="135"/>
-      <c r="C151" s="136"/>
-      <c r="D151" s="135"/>
-      <c r="E151" s="132"/>
-      <c r="F151" s="127" t="s">
+      <c r="B151" s="98"/>
+      <c r="C151" s="95"/>
+      <c r="D151" s="98"/>
+      <c r="E151" s="65"/>
+      <c r="F151" s="31" t="s">
         <v>460</v>
       </c>
-      <c r="G151" s="128" t="s">
+      <c r="G151" t="s">
         <v>453</v>
       </c>
-      <c r="H151" s="129" t="s">
+      <c r="H151" s="20" t="s">
         <v>454</v>
       </c>
-      <c r="I151" s="129" t="s">
+      <c r="I151" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="J151" s="130" t="s">
+      <c r="J151" s="58" t="s">
         <v>375</v>
       </c>
       <c r="K151" s="84"/>
     </row>
     <row r="152" spans="1:12" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A152" s="85"/>
-      <c r="B152" s="93"/>
-      <c r="C152" s="90"/>
-      <c r="D152" s="93"/>
+      <c r="B152" s="99"/>
+      <c r="C152" s="96"/>
+      <c r="D152" s="99"/>
       <c r="E152" s="66"/>
       <c r="F152" s="32" t="s">
         <v>452</v>
@@ -9200,13 +9198,13 @@
     </row>
     <row r="153" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" s="80"/>
-      <c r="B153" s="91" t="s">
+      <c r="B153" s="97" t="s">
         <v>253</v>
       </c>
-      <c r="C153" s="88" t="s">
+      <c r="C153" s="94" t="s">
         <v>449</v>
       </c>
-      <c r="D153" s="88" t="s">
+      <c r="D153" s="94" t="s">
         <v>459</v>
       </c>
       <c r="E153" s="26">
@@ -9224,17 +9222,17 @@
       <c r="I153" s="47" t="s">
         <v>466</v>
       </c>
-      <c r="J153" s="108" t="s">
+      <c r="J153" s="119" t="s">
         <v>375</v>
       </c>
       <c r="K153" s="82"/>
-      <c r="L153" s="128"/>
+      <c r="L153"/>
     </row>
     <row r="154" spans="1:12" s="25" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A154" s="85"/>
-      <c r="B154" s="93"/>
-      <c r="C154" s="90"/>
-      <c r="D154" s="90"/>
+      <c r="B154" s="99"/>
+      <c r="C154" s="96"/>
+      <c r="D154" s="96"/>
       <c r="E154" s="25">
         <v>2</v>
       </c>
@@ -9247,24 +9245,24 @@
       <c r="I154" s="27" t="s">
         <v>465</v>
       </c>
-      <c r="J154" s="107"/>
+      <c r="J154" s="120"/>
       <c r="K154" s="86"/>
     </row>
     <row r="155" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="80"/>
-      <c r="B155" s="91" t="s">
+      <c r="B155" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="C155" s="88" t="s">
+      <c r="C155" s="94" t="s">
         <v>449</v>
       </c>
-      <c r="D155" s="88" t="s">
+      <c r="D155" s="94" t="s">
         <v>467</v>
       </c>
       <c r="E155" s="26">
         <v>1</v>
       </c>
-      <c r="F155" s="146" t="s">
+      <c r="F155" s="92" t="s">
         <v>468</v>
       </c>
       <c r="G155" s="26" t="s">
@@ -9276,16 +9274,16 @@
       <c r="I155" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="J155" s="108" t="s">
+      <c r="J155" s="119" t="s">
         <v>375</v>
       </c>
       <c r="K155" s="82"/>
     </row>
     <row r="156" spans="1:12" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A156" s="85"/>
-      <c r="B156" s="93"/>
-      <c r="C156" s="90"/>
-      <c r="D156" s="90"/>
+      <c r="B156" s="99"/>
+      <c r="C156" s="96"/>
+      <c r="D156" s="96"/>
       <c r="E156" s="25">
         <v>2</v>
       </c>
@@ -9298,19 +9296,19 @@
       <c r="I156" s="27" t="s">
         <v>472</v>
       </c>
-      <c r="J156" s="107"/>
+      <c r="J156" s="120"/>
       <c r="K156" s="86"/>
       <c r="L156" s="46"/>
     </row>
     <row r="157" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="80"/>
-      <c r="B157" s="91" t="s">
+      <c r="B157" s="97" t="s">
         <v>255</v>
       </c>
-      <c r="C157" s="88" t="s">
+      <c r="C157" s="94" t="s">
         <v>449</v>
       </c>
-      <c r="D157" s="88" t="s">
+      <c r="D157" s="94" t="s">
         <v>474</v>
       </c>
       <c r="E157" s="26">
@@ -9322,16 +9320,16 @@
       <c r="G157" s="26"/>
       <c r="H157" s="26"/>
       <c r="I157" s="26"/>
-      <c r="J157" s="108" t="s">
+      <c r="J157" s="119" t="s">
         <v>382</v>
       </c>
       <c r="K157" s="82"/>
     </row>
     <row r="158" spans="1:12" s="25" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="85"/>
-      <c r="B158" s="93"/>
-      <c r="C158" s="90"/>
-      <c r="D158" s="90"/>
+      <c r="B158" s="99"/>
+      <c r="C158" s="96"/>
+      <c r="D158" s="96"/>
       <c r="E158" s="25">
         <v>2</v>
       </c>
@@ -9347,19 +9345,19 @@
       <c r="I158" s="27" t="s">
         <v>479</v>
       </c>
-      <c r="J158" s="107"/>
+      <c r="J158" s="120"/>
       <c r="K158" s="86"/>
       <c r="L158" s="46"/>
     </row>
     <row r="159" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="80"/>
-      <c r="B159" s="91" t="s">
+      <c r="B159" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="C159" s="88" t="s">
+      <c r="C159" s="94" t="s">
         <v>449</v>
       </c>
-      <c r="D159" s="88" t="s">
+      <c r="D159" s="94" t="s">
         <v>497</v>
       </c>
       <c r="E159" s="26">
@@ -9375,16 +9373,16 @@
       <c r="I159" s="47" t="s">
         <v>482</v>
       </c>
-      <c r="J159" s="108" t="s">
+      <c r="J159" s="119" t="s">
         <v>375</v>
       </c>
       <c r="K159" s="82"/>
     </row>
     <row r="160" spans="1:12" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="85"/>
-      <c r="B160" s="93"/>
-      <c r="C160" s="90"/>
-      <c r="D160" s="90"/>
+      <c r="B160" s="99"/>
+      <c r="C160" s="96"/>
+      <c r="D160" s="96"/>
       <c r="E160" s="25">
         <v>2</v>
       </c>
@@ -9397,21 +9395,21 @@
       <c r="I160" s="27" t="s">
         <v>499</v>
       </c>
-      <c r="J160" s="107"/>
+      <c r="J160" s="120"/>
       <c r="K160" s="86"/>
       <c r="L160" s="46"/>
     </row>
     <row r="161" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="135" t="s">
+      <c r="B161" s="98" t="s">
         <v>257</v>
       </c>
-      <c r="C161" s="136" t="s">
+      <c r="C161" s="95" t="s">
         <v>449</v>
       </c>
-      <c r="D161" s="135" t="s">
+      <c r="D161" s="98" t="s">
         <v>484</v>
       </c>
-      <c r="E161" s="128">
+      <c r="E161">
         <v>1</v>
       </c>
       <c r="F161" s="31" t="s">
@@ -9423,27 +9421,27 @@
       <c r="H161" t="s">
         <v>489</v>
       </c>
-      <c r="J161" s="106" t="s">
+      <c r="J161" s="121" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B162" s="92"/>
-      <c r="C162" s="89"/>
-      <c r="D162" s="92"/>
+      <c r="B162" s="98"/>
+      <c r="C162" s="95"/>
+      <c r="D162" s="98"/>
       <c r="E162">
         <v>2</v>
       </c>
       <c r="F162" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="J162" s="106"/>
+      <c r="J162" s="121"/>
     </row>
     <row r="163" spans="1:12" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="29"/>
-      <c r="B163" s="93"/>
-      <c r="C163" s="90"/>
-      <c r="D163" s="93"/>
+      <c r="B163" s="99"/>
+      <c r="C163" s="96"/>
+      <c r="D163" s="99"/>
       <c r="E163" s="25">
         <v>3</v>
       </c>
@@ -9456,18 +9454,18 @@
       <c r="I163" s="27" t="s">
         <v>490</v>
       </c>
-      <c r="J163" s="107"/>
+      <c r="J163" s="120"/>
       <c r="L163" s="46"/>
     </row>
     <row r="164" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="80"/>
-      <c r="B164" s="91" t="s">
+      <c r="B164" s="97" t="s">
         <v>258</v>
       </c>
-      <c r="C164" s="88" t="s">
+      <c r="C164" s="94" t="s">
         <v>449</v>
       </c>
-      <c r="D164" s="91" t="s">
+      <c r="D164" s="97" t="s">
         <v>491</v>
       </c>
       <c r="E164" s="26">
@@ -9481,16 +9479,16 @@
       </c>
       <c r="H164" s="26"/>
       <c r="I164" s="26"/>
-      <c r="J164" s="108" t="s">
+      <c r="J164" s="119" t="s">
         <v>375</v>
       </c>
       <c r="K164" s="82"/>
     </row>
     <row r="165" spans="1:12" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A165" s="85"/>
-      <c r="B165" s="93"/>
-      <c r="C165" s="90"/>
-      <c r="D165" s="93"/>
+      <c r="B165" s="99"/>
+      <c r="C165" s="96"/>
+      <c r="D165" s="99"/>
       <c r="E165" s="25">
         <v>2</v>
       </c>
@@ -9503,19 +9501,19 @@
       <c r="I165" s="27" t="s">
         <v>495</v>
       </c>
-      <c r="J165" s="107"/>
+      <c r="J165" s="120"/>
       <c r="K165" s="86"/>
       <c r="L165" s="46"/>
     </row>
     <row r="166" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="80"/>
-      <c r="B166" s="91" t="s">
+      <c r="B166" s="97" t="s">
         <v>513</v>
       </c>
-      <c r="C166" s="88" t="s">
+      <c r="C166" s="94" t="s">
         <v>496</v>
       </c>
-      <c r="D166" s="91" t="s">
+      <c r="D166" s="97" t="s">
         <v>500</v>
       </c>
       <c r="E166" s="26">
@@ -9527,39 +9525,39 @@
       <c r="G166" s="26"/>
       <c r="H166" s="26"/>
       <c r="I166" s="26"/>
-      <c r="J166" s="108" t="s">
+      <c r="J166" s="119" t="s">
         <v>514</v>
       </c>
       <c r="K166" s="82"/>
     </row>
     <row r="167" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="83"/>
-      <c r="B167" s="135"/>
-      <c r="C167" s="136"/>
-      <c r="D167" s="135"/>
-      <c r="E167" s="128">
+      <c r="B167" s="98"/>
+      <c r="C167" s="95"/>
+      <c r="D167" s="98"/>
+      <c r="E167">
         <v>2</v>
       </c>
-      <c r="F167" s="127" t="s">
+      <c r="F167" s="31" t="s">
         <v>501</v>
       </c>
-      <c r="G167" s="128" t="s">
+      <c r="G167" t="s">
         <v>507</v>
       </c>
-      <c r="H167" s="128" t="s">
+      <c r="H167" t="s">
         <v>508</v>
       </c>
-      <c r="I167" s="128" t="s">
+      <c r="I167" t="s">
         <v>509</v>
       </c>
-      <c r="J167" s="145"/>
+      <c r="J167" s="121"/>
       <c r="K167" s="84"/>
     </row>
     <row r="168" spans="1:12" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="85"/>
-      <c r="B168" s="93"/>
-      <c r="C168" s="90"/>
-      <c r="D168" s="93"/>
+      <c r="B168" s="99"/>
+      <c r="C168" s="96"/>
+      <c r="D168" s="99"/>
       <c r="E168" s="25">
         <v>3</v>
       </c>
@@ -9575,155 +9573,83 @@
       <c r="I168" s="27" t="s">
         <v>512</v>
       </c>
-      <c r="J168" s="107"/>
+      <c r="J168" s="120"/>
       <c r="K168" s="86"/>
       <c r="L168" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="239">
-    <mergeCell ref="D142:D145"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="D146:D149"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="J142:J145"/>
-    <mergeCell ref="J146:J149"/>
-    <mergeCell ref="J39:J44"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="J52:J55"/>
-    <mergeCell ref="D85:D93"/>
-    <mergeCell ref="J60:J64"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="J3:J8"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="J15:J20"/>
-    <mergeCell ref="J21:J25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="J153:J154"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="J155:J156"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="D150:D152"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="B150:B152"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="D166:D168"/>
-    <mergeCell ref="C166:C168"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="J166:J168"/>
-    <mergeCell ref="J127:J129"/>
-    <mergeCell ref="J161:J163"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="B161:B163"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="J164:J165"/>
-    <mergeCell ref="J157:J158"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="J159:J160"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="D139:D141"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="J139:J141"/>
+    <mergeCell ref="J130:J132"/>
+    <mergeCell ref="J133:J135"/>
+    <mergeCell ref="D133:D135"/>
+    <mergeCell ref="C133:C135"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="D136:D138"/>
+    <mergeCell ref="J136:J138"/>
+    <mergeCell ref="A115:A126"/>
+    <mergeCell ref="B115:B126"/>
+    <mergeCell ref="C115:C126"/>
+    <mergeCell ref="D115:D126"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="D130:D132"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="B109:B114"/>
+    <mergeCell ref="C109:C114"/>
+    <mergeCell ref="D109:D114"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="J109:J114"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="J103:J108"/>
+    <mergeCell ref="J94:J102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="D94:D102"/>
+    <mergeCell ref="C94:C102"/>
+    <mergeCell ref="B94:B102"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="D103:D108"/>
+    <mergeCell ref="C103:C108"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A94:A102"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A85:A93"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G92:G93"/>
     <mergeCell ref="K60:K61"/>
     <mergeCell ref="E85:E86"/>
     <mergeCell ref="G85:G86"/>
@@ -9748,78 +9674,150 @@
     <mergeCell ref="E92:E93"/>
     <mergeCell ref="F92:F93"/>
     <mergeCell ref="C85:C93"/>
-    <mergeCell ref="A94:A102"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A85:A93"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="A109:A114"/>
-    <mergeCell ref="B109:B114"/>
-    <mergeCell ref="C109:C114"/>
-    <mergeCell ref="D109:D114"/>
-    <mergeCell ref="A103:A108"/>
-    <mergeCell ref="J109:J114"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="J103:J108"/>
-    <mergeCell ref="J94:J102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="D94:D102"/>
-    <mergeCell ref="C94:C102"/>
-    <mergeCell ref="B94:B102"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="D103:D108"/>
-    <mergeCell ref="C103:C108"/>
-    <mergeCell ref="B103:B108"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A115:A126"/>
-    <mergeCell ref="B115:B126"/>
-    <mergeCell ref="C115:C126"/>
-    <mergeCell ref="D115:D126"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="A130:A132"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="D130:D132"/>
+    <mergeCell ref="D166:D168"/>
+    <mergeCell ref="C166:C168"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="J166:J168"/>
+    <mergeCell ref="J127:J129"/>
+    <mergeCell ref="J161:J163"/>
+    <mergeCell ref="D161:D163"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="B161:B163"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="J164:J165"/>
+    <mergeCell ref="J157:J158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="J159:J160"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="D157:D158"/>
     <mergeCell ref="C139:C141"/>
-    <mergeCell ref="D139:D141"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="J139:J141"/>
-    <mergeCell ref="J130:J132"/>
-    <mergeCell ref="J133:J135"/>
-    <mergeCell ref="D133:D135"/>
-    <mergeCell ref="C133:C135"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="D136:D138"/>
-    <mergeCell ref="J136:J138"/>
+    <mergeCell ref="J153:J154"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="J155:J156"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="D150:D152"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="B150:B152"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="J3:J8"/>
+    <mergeCell ref="J9:J14"/>
+    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="J21:J25"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J39:J44"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="J52:J55"/>
+    <mergeCell ref="D85:D93"/>
+    <mergeCell ref="J60:J64"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="A142:A145"/>
+    <mergeCell ref="D146:D149"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="J142:J145"/>
+    <mergeCell ref="J146:J149"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
